--- a/docs/output/table1.xlsx
+++ b/docs/output/table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\toothheart\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\cvd-and-teeth\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7316A-2D23-4284-BDC1-8F7D8B8790D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D4128-F915-4BC1-A0E6-7D6C1A927947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Participants</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>Table 1</t>
+  </si>
+  <si>
+    <t>Smoker?</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Former Smoker</t>
+  </si>
+  <si>
+    <t>Current Smoker</t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -418,6 +430,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,15 +462,15 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05340071-B91E-474C-A86D-AAA77A73D6F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E404A3FE-888E-472E-B8B2-A1164334D2AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -479,7 +494,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="6600825" cy="11144250"/>
+          <a:ext cx="6600825" cy="11906250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1547F-4FEB-40FA-9FA4-C2615748DE86}">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,25 +894,25 @@
       </c>
       <c r="D4" s="8" t="str">
         <f>TEXT(P4, "###,###")&amp;" ("&amp;TEXT(P4/P$4, "%0.0")&amp;")"</f>
-        <v>273,798 (%100.0)</v>
+        <v>266,109 (%100.0)</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>TEXT(Q4, "###,###")&amp;" ("&amp;TEXT(Q4/$P4, "%0.0")&amp;")"</f>
-        <v>23,912 (%8.7)</v>
+        <v>23,039 (%8.7)</v>
       </c>
       <c r="F4" s="8" t="str">
         <f>TEXT(R4, "###,###")&amp;" ("&amp;TEXT(R4/$P4, "%0.0")&amp;")"</f>
-        <v>250,397 (%91.5)</v>
+        <v>243,070 (%91.3)</v>
       </c>
       <c r="K4" s="10"/>
       <c r="P4" s="4">
-        <v>273798</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>23912</v>
-      </c>
-      <c r="R4" s="4">
-        <v>250397</v>
+        <v>266109</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>23039</v>
+      </c>
+      <c r="R4" s="3">
+        <v>243070</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -923,15 +938,15 @@
       <c r="C7" s="17"/>
       <c r="D7" s="18" t="str">
         <f>TEXT(P7, "###,###")&amp;" ("&amp;TEXT(P7/P$4, "%0.0")&amp;")"</f>
-        <v>104,802 (%38.3)</v>
+        <v>104,802 (%39.4)</v>
       </c>
       <c r="E7" s="18" t="str">
         <f t="shared" ref="E7" si="0">TEXT(Q7, "###,###")&amp;" ("&amp;TEXT(Q7/Q$4, "%0.0")&amp;")"</f>
-        <v>5,328 (%22.3)</v>
+        <v>99,474 (%431.8)</v>
       </c>
       <c r="F7" s="18" t="str">
         <f t="shared" ref="F7" si="1">TEXT(R7, "###,###")&amp;" ("&amp;TEXT(R7/R$4, "%0.0")&amp;")"</f>
-        <v>99,474 (%39.7)</v>
+        <v>5,328 (%2.2)</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18" t="s">
@@ -943,10 +958,10 @@
         <v>104802</v>
       </c>
       <c r="Q7" s="4">
+        <v>99474</v>
+      </c>
+      <c r="R7" s="4">
         <v>5328</v>
-      </c>
-      <c r="R7" s="4">
-        <v>99474</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -956,15 +971,15 @@
       <c r="C8" s="19"/>
       <c r="D8" s="18" t="str">
         <f>TEXT(P8, "###,###")&amp;" ("&amp;TEXT(P8/P$4, "%0.0")&amp;")"</f>
-        <v>90,192 (%32.9)</v>
+        <v>90,192 (%33.9)</v>
       </c>
       <c r="E8" s="18" t="str">
-        <f>TEXT(Q8, "###,###")&amp;" ("&amp;TEXT(Q8/Q$4, "%0.0")&amp;")"</f>
-        <v>6,968 (%29.1)</v>
+        <f t="shared" ref="E8:F10" si="2">TEXT(Q8, "###,###")&amp;" ("&amp;TEXT(Q8/Q$4, "%0.0")&amp;")"</f>
+        <v>83,224 (%361.2)</v>
       </c>
       <c r="F8" s="18" t="str">
-        <f>TEXT(R8, "###,###")&amp;" ("&amp;TEXT(R8/R$4, "%0.0")&amp;")"</f>
-        <v>83,224 (%33.2)</v>
+        <f t="shared" si="2"/>
+        <v>6,968 (%2.9)</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -975,10 +990,10 @@
         <v>90192</v>
       </c>
       <c r="Q8" s="4">
+        <v>83224</v>
+      </c>
+      <c r="R8" s="4">
         <v>6968</v>
-      </c>
-      <c r="R8" s="4">
-        <v>83224</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -988,15 +1003,15 @@
       <c r="C9" s="19"/>
       <c r="D9" s="18" t="str">
         <f>TEXT(P9, "###,###")&amp;" ("&amp;TEXT(P9/P$4, "%0.0")&amp;")"</f>
-        <v>44,317 (%16.2)</v>
+        <v>44,317 (%16.7)</v>
       </c>
       <c r="E9" s="18" t="str">
-        <f>TEXT(Q9, "###,###")&amp;" ("&amp;TEXT(Q9/Q$4, "%0.0")&amp;")"</f>
-        <v>5,901 (%24.7)</v>
+        <f t="shared" si="2"/>
+        <v>38,416 (%166.7)</v>
       </c>
       <c r="F9" s="18" t="str">
-        <f>TEXT(R9, "###,###")&amp;" ("&amp;TEXT(R9/R$4, "%0.0")&amp;")"</f>
-        <v>38,416 (%15.3)</v>
+        <f t="shared" si="2"/>
+        <v>5,901 (%2.4)</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
@@ -1007,10 +1022,10 @@
         <v>44317</v>
       </c>
       <c r="Q9" s="4">
+        <v>38416</v>
+      </c>
+      <c r="R9" s="4">
         <v>5901</v>
-      </c>
-      <c r="R9" s="4">
-        <v>38416</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1020,15 +1035,15 @@
       <c r="C10" s="19"/>
       <c r="D10" s="18" t="str">
         <f>TEXT(P10, "###,###")&amp;" ("&amp;TEXT(P10/P$4, "%0.0")&amp;")"</f>
-        <v>26,798 (%9.8)</v>
+        <v>26,798 (%10.1)</v>
       </c>
       <c r="E10" s="18" t="str">
-        <f>TEXT(Q10, "###,###")&amp;" ("&amp;TEXT(Q10/Q$4, "%0.0")&amp;")"</f>
-        <v>4,842 (%20.2)</v>
+        <f t="shared" si="2"/>
+        <v>21,956 (%95.3)</v>
       </c>
       <c r="F10" s="18" t="str">
-        <f>TEXT(R10, "###,###")&amp;" ("&amp;TEXT(R10/R$4, "%0.0")&amp;")"</f>
-        <v>21,956 (%8.8)</v>
+        <f t="shared" si="2"/>
+        <v>4,842 (%2.0)</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="20"/>
@@ -1039,1024 +1054,1031 @@
         <v>26798</v>
       </c>
       <c r="Q10" s="4">
+        <v>21956</v>
+      </c>
+      <c r="R10" s="4">
         <v>4842</v>
       </c>
-      <c r="R10" s="4">
-        <v>21956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="str">
-        <f>TEXT(P11, "###,###")&amp;" ("&amp;TEXT(P11/P$4, "%0.0")&amp;")"</f>
-        <v>8,200 (%3.0)</v>
-      </c>
-      <c r="E11" s="18" t="str">
-        <f>TEXT(Q11, "###,###")&amp;" ("&amp;TEXT(Q11/Q$4, "%0.0")&amp;")"</f>
-        <v>873 (%3.7)</v>
-      </c>
-      <c r="F11" s="18" t="str">
-        <f>TEXT(R11, "###,###")&amp;" ("&amp;TEXT(R11/R$4, "%0.0")&amp;")"</f>
-        <v>7,327 (%2.9)</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="4">
-        <v>8200</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>873</v>
-      </c>
-      <c r="R11" s="4">
-        <v>7327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" ref="D12:F14" si="3">TEXT(P12, "###,###")&amp;" ("&amp;TEXT(P12/P$4, "%0.0")&amp;")"</f>
+        <v>149,952 (%56.3)</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>140,812 (%611.2)</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>9,140 (%3.8)</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="N12" s="11"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="4">
+        <v>149952</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>140812</v>
+      </c>
+      <c r="R12" s="4">
+        <v>9140</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>TEXT(P13, "###,###")&amp;" ("&amp;TEXT(P13/P$4, "%0.0")&amp;")"</f>
-        <v>155,032 (%56.6)</v>
+        <f t="shared" si="3"/>
+        <v>115,714 (%43.5)</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f>TEXT(Q13, "###,###")&amp;" ("&amp;TEXT(Q13/Q$4, "%0.0")&amp;")"</f>
-        <v>9,541 (%39.9)</v>
+        <f t="shared" si="3"/>
+        <v>101,864 (%442.1)</v>
       </c>
       <c r="F13" s="8" t="str">
-        <f>TEXT(R13, "###,###")&amp;" ("&amp;TEXT(R13/R$4, "%0.0")&amp;")"</f>
-        <v>145,491 (%58.1)</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="6"/>
+        <f t="shared" si="3"/>
+        <v>13,850 (%5.7)</v>
+      </c>
       <c r="P13" s="4">
-        <v>155032</v>
+        <v>115714</v>
       </c>
       <c r="Q13" s="4">
-        <v>9541</v>
+        <v>101864</v>
       </c>
       <c r="R13" s="4">
-        <v>145491</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>TEXT(P14, "###,###")&amp;" ("&amp;TEXT(P14/P$4, "%0.0")&amp;")"</f>
-        <v>118,784 (%43.4)</v>
+        <f t="shared" si="3"/>
+        <v>443 (%0.2)</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>TEXT(Q14, "###,###")&amp;" ("&amp;TEXT(Q14/Q$4, "%0.0")&amp;")"</f>
-        <v>14,311 (%59.8)</v>
+        <f t="shared" si="3"/>
+        <v>394 (%1.7)</v>
       </c>
       <c r="F14" s="8" t="str">
-        <f>TEXT(R14, "###,###")&amp;" ("&amp;TEXT(R14/R$4, "%0.0")&amp;")"</f>
-        <v>104,473 (%41.7)</v>
+        <f t="shared" si="3"/>
+        <v>49 (%0.0)</v>
       </c>
       <c r="P14" s="4">
-        <v>118784</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="4">
-        <v>14311</v>
+        <v>394</v>
       </c>
       <c r="R14" s="4">
-        <v>104473</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f>TEXT(P15, "###,###")&amp;" ("&amp;TEXT(P15/P$4, "%0.0")&amp;")"</f>
-        <v>493 (%0.2)</v>
-      </c>
-      <c r="E15" s="8" t="str">
-        <f>TEXT(Q15, "###,###")&amp;" ("&amp;TEXT(Q15/Q$4, "%0.0")&amp;")"</f>
-        <v>60 (%0.3)</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f>TEXT(R15, "###,###")&amp;" ("&amp;TEXT(R15/R$4, "%0.0")&amp;")"</f>
-        <v>433 (%0.2)</v>
-      </c>
-      <c r="P15" s="4">
-        <v>493</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>60</v>
-      </c>
-      <c r="R15" s="4">
-        <v>433</v>
-      </c>
+      <c r="B15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>38</v>
+      <c r="B16" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="D16" s="18" t="str">
+        <f t="shared" ref="D16:F21" si="4">TEXT(P16, "###,###")&amp;" ("&amp;TEXT(P16/P$4, "%0.0")&amp;")"</f>
+        <v>214,832 (%80.7)</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>196,315 (%852.1)</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>18,517 (%7.6)</v>
+      </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="4">
+        <v>214832</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>196315</v>
+      </c>
+      <c r="R16" s="4">
+        <v>18517</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="str">
-        <f>TEXT(P17, "###,###")&amp;" ("&amp;TEXT(P17/P$4, "%0.0")&amp;")"</f>
-        <v>220,384 (%80.5)</v>
+        <f t="shared" si="4"/>
+        <v>20,092 (%7.6)</v>
       </c>
       <c r="E17" s="18" t="str">
-        <f>TEXT(Q17, "###,###")&amp;" ("&amp;TEXT(Q17/Q$4, "%0.0")&amp;")"</f>
-        <v>19,108 (%79.9)</v>
+        <f t="shared" si="4"/>
+        <v>18,487 (%80.2)</v>
       </c>
       <c r="F17" s="18" t="str">
-        <f>TEXT(R17, "###,###")&amp;" ("&amp;TEXT(R17/R$4, "%0.0")&amp;")"</f>
-        <v>201,276 (%80.4)</v>
+        <f t="shared" si="4"/>
+        <v>1,605 (%0.7)</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="H17" s="18"/>
       <c r="P17" s="4">
-        <v>220384</v>
+        <v>20092</v>
       </c>
       <c r="Q17" s="4">
-        <v>19108</v>
+        <v>18487</v>
       </c>
       <c r="R17" s="4">
-        <v>201276</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18" t="str">
-        <f>TEXT(P18, "###,###")&amp;" ("&amp;TEXT(P18/P$4, "%0.0")&amp;")"</f>
-        <v>20,685 (%7.6)</v>
+        <f t="shared" si="4"/>
+        <v>13,614 (%5.1)</v>
       </c>
       <c r="E18" s="18" t="str">
-        <f>TEXT(Q18, "###,###")&amp;" ("&amp;TEXT(Q18/Q$4, "%0.0")&amp;")"</f>
-        <v>1,655 (%6.9)</v>
+        <f t="shared" si="4"/>
+        <v>12,573 (%54.6)</v>
       </c>
       <c r="F18" s="18" t="str">
-        <f>TEXT(R18, "###,###")&amp;" ("&amp;TEXT(R18/R$4, "%0.0")&amp;")"</f>
-        <v>19,030 (%7.6)</v>
+        <f t="shared" si="4"/>
+        <v>1,041 (%0.4)</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="P18" s="4">
-        <v>20685</v>
+        <v>13614</v>
       </c>
       <c r="Q18" s="4">
-        <v>1655</v>
+        <v>12573</v>
       </c>
       <c r="R18" s="4">
-        <v>19030</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="str">
-        <f>TEXT(P19, "###,###")&amp;" ("&amp;TEXT(P19/P$4, "%0.0")&amp;")"</f>
-        <v>13,952 (%5.1)</v>
+        <f t="shared" si="4"/>
+        <v>3,541 (%1.3)</v>
       </c>
       <c r="E19" s="18" t="str">
-        <f>TEXT(Q19, "###,###")&amp;" ("&amp;TEXT(Q19/Q$4, "%0.0")&amp;")"</f>
-        <v>1,066 (%4.5)</v>
+        <f t="shared" si="4"/>
+        <v>3,353 (%14.6)</v>
       </c>
       <c r="F19" s="18" t="str">
-        <f>TEXT(R19, "###,###")&amp;" ("&amp;TEXT(R19/R$4, "%0.0")&amp;")"</f>
-        <v>12,886 (%5.1)</v>
+        <f t="shared" si="4"/>
+        <v>188 (%0.1)</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="P19" s="4">
-        <v>13952</v>
+        <v>3541</v>
       </c>
       <c r="Q19" s="4">
-        <v>1066</v>
+        <v>3353</v>
       </c>
       <c r="R19" s="4">
-        <v>12886</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18" t="str">
-        <f>TEXT(P20, "###,###")&amp;" ("&amp;TEXT(P20/P$4, "%0.0")&amp;")"</f>
-        <v>3,637 (%1.3)</v>
+        <f t="shared" si="4"/>
+        <v>11,005 (%4.1)</v>
       </c>
       <c r="E20" s="18" t="str">
-        <f>TEXT(Q20, "###,###")&amp;" ("&amp;TEXT(Q20/Q$4, "%0.0")&amp;")"</f>
-        <v>195 (%0.8)</v>
+        <f t="shared" si="4"/>
+        <v>9,591 (%41.6)</v>
       </c>
       <c r="F20" s="18" t="str">
-        <f>TEXT(R20, "###,###")&amp;" ("&amp;TEXT(R20/R$4, "%0.0")&amp;")"</f>
-        <v>3,442 (%1.4)</v>
+        <f t="shared" si="4"/>
+        <v>1,414 (%0.6)</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
       <c r="P20" s="4">
-        <v>3637</v>
+        <v>11005</v>
       </c>
       <c r="Q20" s="4">
-        <v>195</v>
+        <v>9591</v>
       </c>
       <c r="R20" s="4">
-        <v>3442</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18" t="str">
-        <f>TEXT(P21, "###,###")&amp;" ("&amp;TEXT(P21/P$4, "%0.0")&amp;")"</f>
-        <v>11,160 (%4.1)</v>
+        <f t="shared" si="4"/>
+        <v>3,025 (%1.1)</v>
       </c>
       <c r="E21" s="18" t="str">
-        <f>TEXT(Q21, "###,###")&amp;" ("&amp;TEXT(Q21/Q$4, "%0.0")&amp;")"</f>
-        <v>1,440 (%6.0)</v>
+        <f t="shared" si="4"/>
+        <v>2,751 (%11.9)</v>
       </c>
       <c r="F21" s="18" t="str">
-        <f>TEXT(R21, "###,###")&amp;" ("&amp;TEXT(R21/R$4, "%0.0")&amp;")"</f>
-        <v>9,720 (%3.9)</v>
+        <f t="shared" si="4"/>
+        <v>274 (%0.1)</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="P21" s="4">
-        <v>11160</v>
+        <v>3025</v>
       </c>
       <c r="Q21" s="4">
-        <v>1440</v>
+        <v>2751</v>
       </c>
       <c r="R21" s="4">
-        <v>9720</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="str">
-        <f>TEXT(P22, "###,###")&amp;" ("&amp;TEXT(P22/P$4, "%0.0")&amp;")"</f>
-        <v>4,491 (%1.6)</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f>TEXT(Q22, "###,###")&amp;" ("&amp;TEXT(Q22/Q$4, "%0.0")&amp;")"</f>
-        <v>448 (%1.9)</v>
-      </c>
-      <c r="F22" s="18" t="str">
-        <f>TEXT(R22, "###,###")&amp;" ("&amp;TEXT(R22/R$4, "%0.0")&amp;")"</f>
-        <v>4,043 (%1.6)</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="P22" s="4">
-        <v>4491</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>448</v>
-      </c>
-      <c r="R22" s="4">
-        <v>4043</v>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>39</v>
+      <c r="B23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" ref="D23:F26" si="5">TEXT(P23, "###,###")&amp;" ("&amp;TEXT(P23/P$4, "%0.0")&amp;")"</f>
+        <v>75,587 (%28.4)</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>71,844 (%311.8)</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>3,743 (%1.5)</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="4">
+        <v>75587</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>71844</v>
+      </c>
+      <c r="R23" s="4">
+        <v>3743</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>TEXT(P24, "###,###")&amp;" ("&amp;TEXT(P24/P$4, "%0.0")&amp;")"</f>
-        <v>76,858 (%28.1)</v>
+        <f t="shared" si="5"/>
+        <v>91,712 (%34.5)</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>TEXT(Q24, "###,###")&amp;" ("&amp;TEXT(Q24/Q$4, "%0.0")&amp;")"</f>
-        <v>3,843 (%16.1)</v>
+        <f t="shared" si="5"/>
+        <v>84,682 (%367.6)</v>
       </c>
       <c r="F24" s="8" t="str">
-        <f>TEXT(R24, "###,###")&amp;" ("&amp;TEXT(R24/R$4, "%0.0")&amp;")"</f>
-        <v>73,015 (%29.2)</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>7,030 (%2.9)</v>
       </c>
       <c r="P24" s="4">
-        <v>76858</v>
+        <v>91712</v>
       </c>
       <c r="Q24" s="4">
-        <v>3843</v>
+        <v>84682</v>
       </c>
       <c r="R24" s="4">
-        <v>73015</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>TEXT(P25, "###,###")&amp;" ("&amp;TEXT(P25/P$4, "%0.0")&amp;")"</f>
-        <v>93,919 (%34.3)</v>
+        <f t="shared" si="5"/>
+        <v>66,579 (%25.0)</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f>TEXT(Q25, "###,###")&amp;" ("&amp;TEXT(Q25/Q$4, "%0.0")&amp;")"</f>
-        <v>7,224 (%30.2)</v>
+        <f t="shared" si="5"/>
+        <v>59,023 (%256.2)</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f>TEXT(R25, "###,###")&amp;" ("&amp;TEXT(R25/R$4, "%0.0")&amp;")"</f>
-        <v>86,695 (%34.6)</v>
+        <f t="shared" si="5"/>
+        <v>7,556 (%3.1)</v>
       </c>
       <c r="P25" s="4">
-        <v>93919</v>
+        <v>66579</v>
       </c>
       <c r="Q25" s="4">
-        <v>7224</v>
+        <v>59023</v>
       </c>
       <c r="R25" s="4">
-        <v>86695</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>TEXT(P26, "###,###")&amp;" ("&amp;TEXT(P26/P$4, "%0.0")&amp;")"</f>
-        <v>69,210 (%25.3)</v>
+        <f t="shared" si="5"/>
+        <v>32,231 (%12.1)</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f>TEXT(Q26, "###,###")&amp;" ("&amp;TEXT(Q26/Q$4, "%0.0")&amp;")"</f>
-        <v>7,833 (%32.8)</v>
+        <f t="shared" si="5"/>
+        <v>27,521 (%119.5)</v>
       </c>
       <c r="F26" s="8" t="str">
-        <f>TEXT(R26, "###,###")&amp;" ("&amp;TEXT(R26/R$4, "%0.0")&amp;")"</f>
-        <v>61,377 (%24.5)</v>
+        <f t="shared" si="5"/>
+        <v>4,710 (%1.9)</v>
       </c>
       <c r="P26" s="4">
-        <v>69210</v>
+        <v>32231</v>
       </c>
       <c r="Q26" s="4">
-        <v>7833</v>
+        <v>27521</v>
       </c>
       <c r="R26" s="4">
-        <v>61377</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="8" t="str">
-        <f>TEXT(P27, "###,###")&amp;" ("&amp;TEXT(P27/P$4, "%0.0")&amp;")"</f>
-        <v>34,322 (%12.5)</v>
-      </c>
-      <c r="E27" s="8" t="str">
-        <f>TEXT(Q27, "###,###")&amp;" ("&amp;TEXT(Q27/Q$4, "%0.0")&amp;")"</f>
-        <v>5,012 (%21.0)</v>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f>TEXT(R27, "###,###")&amp;" ("&amp;TEXT(R27/R$4, "%0.0")&amp;")"</f>
-        <v>29,310 (%11.7)</v>
-      </c>
-      <c r="P27" s="4">
-        <v>34322</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>5012</v>
-      </c>
-      <c r="R27" s="4">
-        <v>29310</v>
-      </c>
+      <c r="B27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>40</v>
+      <c r="B28" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="D28" s="18" t="str">
+        <f t="shared" ref="D28:F32" si="6">TEXT(P28, "###,###")&amp;" ("&amp;TEXT(P28/P$4, "%0.0")&amp;")"</f>
+        <v>19,556 (%7.3)</v>
+      </c>
+      <c r="E28" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>16,597 (%72.0)</v>
+      </c>
+      <c r="F28" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>2,959 (%1.2)</v>
+      </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="4">
+        <v>19556</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>16597</v>
+      </c>
+      <c r="R28" s="4">
+        <v>2959</v>
+      </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18" t="str">
-        <f>TEXT(P29, "###,###")&amp;" ("&amp;TEXT(P29/P$4, "%0.0")&amp;")"</f>
-        <v>20,479 (%7.5)</v>
+        <f t="shared" si="6"/>
+        <v>73,987 (%27.8)</v>
       </c>
       <c r="E29" s="18" t="str">
-        <f>TEXT(Q29, "###,###")&amp;" ("&amp;TEXT(Q29/Q$4, "%0.0")&amp;")"</f>
-        <v>3,113 (%13.0)</v>
+        <f t="shared" si="6"/>
+        <v>66,354 (%288.0)</v>
       </c>
       <c r="F29" s="18" t="str">
-        <f>TEXT(R29, "###,###")&amp;" ("&amp;TEXT(R29/R$4, "%0.0")&amp;")"</f>
-        <v>17,366 (%6.9)</v>
+        <f t="shared" si="6"/>
+        <v>7,633 (%3.1)</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="H29" s="18"/>
       <c r="P29" s="4">
-        <v>20479</v>
+        <v>73987</v>
       </c>
       <c r="Q29" s="4">
-        <v>3113</v>
+        <v>66354</v>
       </c>
       <c r="R29" s="4">
-        <v>17366</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18" t="str">
-        <f>TEXT(P30, "###,###")&amp;" ("&amp;TEXT(P30/P$4, "%0.0")&amp;")"</f>
-        <v>76,983 (%28.1)</v>
+        <f t="shared" si="6"/>
+        <v>72,146 (%27.1)</v>
       </c>
       <c r="E30" s="18" t="str">
-        <f>TEXT(Q30, "###,###")&amp;" ("&amp;TEXT(Q30/Q$4, "%0.0")&amp;")"</f>
-        <v>7,938 (%33.2)</v>
+        <f t="shared" si="6"/>
+        <v>65,734 (%285.3)</v>
       </c>
       <c r="F30" s="18" t="str">
-        <f>TEXT(R30, "###,###")&amp;" ("&amp;TEXT(R30/R$4, "%0.0")&amp;")"</f>
-        <v>69,045 (%27.6)</v>
+        <f t="shared" si="6"/>
+        <v>6,412 (%2.6)</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="P30" s="4">
-        <v>76983</v>
+        <v>72146</v>
       </c>
       <c r="Q30" s="4">
-        <v>7938</v>
+        <v>65734</v>
       </c>
       <c r="R30" s="4">
-        <v>69045</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="18" t="str">
-        <f>TEXT(P31, "###,###")&amp;" ("&amp;TEXT(P31/P$4, "%0.0")&amp;")"</f>
-        <v>74,353 (%27.2)</v>
+        <f t="shared" si="6"/>
+        <v>99,900 (%37.5)</v>
       </c>
       <c r="E31" s="18" t="str">
-        <f>TEXT(Q31, "###,###")&amp;" ("&amp;TEXT(Q31/Q$4, "%0.0")&amp;")"</f>
-        <v>6,646 (%27.8)</v>
+        <f t="shared" si="6"/>
+        <v>93,910 (%407.6)</v>
       </c>
       <c r="F31" s="18" t="str">
-        <f>TEXT(R31, "###,###")&amp;" ("&amp;TEXT(R31/R$4, "%0.0")&amp;")"</f>
-        <v>67,707 (%27.0)</v>
+        <f t="shared" si="6"/>
+        <v>5,990 (%2.5)</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
       <c r="P31" s="4">
-        <v>74353</v>
+        <v>99900</v>
       </c>
       <c r="Q31" s="4">
-        <v>6646</v>
+        <v>93910</v>
       </c>
       <c r="R31" s="4">
-        <v>67707</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="18" t="str">
-        <f>TEXT(P32, "###,###")&amp;" ("&amp;TEXT(P32/P$4, "%0.0")&amp;")"</f>
-        <v>101,906 (%37.2)</v>
+        <f t="shared" si="6"/>
+        <v>520 (%0.2)</v>
       </c>
       <c r="E32" s="18" t="str">
-        <f>TEXT(Q32, "###,###")&amp;" ("&amp;TEXT(Q32/Q$4, "%0.0")&amp;")"</f>
-        <v>6,164 (%25.8)</v>
+        <f t="shared" si="6"/>
+        <v>475 (%2.1)</v>
       </c>
       <c r="F32" s="18" t="str">
-        <f>TEXT(R32, "###,###")&amp;" ("&amp;TEXT(R32/R$4, "%0.0")&amp;")"</f>
-        <v>95,742 (%38.2)</v>
+        <f t="shared" si="6"/>
+        <v>45 (%0.0)</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="P32" s="4">
-        <v>101906</v>
+        <v>520</v>
       </c>
       <c r="Q32" s="4">
-        <v>6164</v>
+        <v>475</v>
       </c>
       <c r="R32" s="4">
-        <v>95742</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18" t="str">
-        <f>TEXT(P33, "###,###")&amp;" ("&amp;TEXT(P33/P$4, "%0.0")&amp;")"</f>
-        <v>588 (%0.2)</v>
-      </c>
-      <c r="E33" s="18" t="str">
-        <f>TEXT(Q33, "###,###")&amp;" ("&amp;TEXT(Q33/Q$4, "%0.0")&amp;")"</f>
-        <v>51 (%0.2)</v>
-      </c>
-      <c r="F33" s="18" t="str">
-        <f>TEXT(R33, "###,###")&amp;" ("&amp;TEXT(R33/R$4, "%0.0")&amp;")"</f>
-        <v>537 (%0.2)</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="P33" s="4">
-        <v>588</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>51</v>
-      </c>
-      <c r="R33" s="4">
-        <v>537</v>
+      <c r="B33" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>41</v>
+      <c r="B34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f t="shared" ref="D34:F39" si="7">TEXT(P34, "###,###")&amp;" ("&amp;TEXT(P34/P$4, "%0.0")&amp;")"</f>
+        <v>21,637 (%8.1)</v>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>18,498 (%80.3)</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>3,139 (%1.3)</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="4">
+        <v>21637</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>18498</v>
+      </c>
+      <c r="R34" s="4">
+        <v>3139</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="8" t="str">
-        <f>TEXT(P35, "###,###")&amp;" ("&amp;TEXT(P35/P$4, "%0.0")&amp;")"</f>
-        <v>22,462 (%8.2)</v>
+        <f t="shared" si="7"/>
+        <v>36,101 (%13.6)</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f>TEXT(Q35, "###,###")&amp;" ("&amp;TEXT(Q35/Q$4, "%0.0")&amp;")"</f>
-        <v>3,261 (%13.6)</v>
+        <f t="shared" si="7"/>
+        <v>31,488 (%136.7)</v>
       </c>
       <c r="F35" s="8" t="str">
-        <f>TEXT(R35, "###,###")&amp;" ("&amp;TEXT(R35/R$4, "%0.0")&amp;")"</f>
-        <v>19,201 (%7.7)</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>4,613 (%1.9)</v>
       </c>
       <c r="P35" s="4">
-        <v>22462</v>
+        <v>36101</v>
       </c>
       <c r="Q35" s="4">
-        <v>3261</v>
+        <v>31488</v>
       </c>
       <c r="R35" s="4">
-        <v>19201</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="8" t="str">
-        <f>TEXT(P36, "###,###")&amp;" ("&amp;TEXT(P36/P$4, "%0.0")&amp;")"</f>
-        <v>37,420 (%13.7)</v>
+        <f t="shared" si="7"/>
+        <v>23,947 (%9.0)</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f>TEXT(Q36, "###,###")&amp;" ("&amp;TEXT(Q36/Q$4, "%0.0")&amp;")"</f>
-        <v>4,783 (%20.0)</v>
+        <f t="shared" si="7"/>
+        <v>21,489 (%93.3)</v>
       </c>
       <c r="F36" s="8" t="str">
-        <f>TEXT(R36, "###,###")&amp;" ("&amp;TEXT(R36/R$4, "%0.0")&amp;")"</f>
-        <v>32,637 (%13.0)</v>
+        <f t="shared" si="7"/>
+        <v>2,458 (%1.0)</v>
       </c>
       <c r="P36" s="4">
-        <v>37420</v>
+        <v>23947</v>
       </c>
       <c r="Q36" s="4">
-        <v>4783</v>
+        <v>21489</v>
       </c>
       <c r="R36" s="4">
-        <v>32637</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="8" t="str">
-        <f>TEXT(P37, "###,###")&amp;" ("&amp;TEXT(P37/P$4, "%0.0")&amp;")"</f>
-        <v>24,667 (%9.0)</v>
+        <f t="shared" si="7"/>
+        <v>31,297 (%11.8)</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f>TEXT(Q37, "###,###")&amp;" ("&amp;TEXT(Q37/Q$4, "%0.0")&amp;")"</f>
-        <v>2,535 (%10.6)</v>
+        <f t="shared" si="7"/>
+        <v>28,489 (%123.7)</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f>TEXT(R37, "###,###")&amp;" ("&amp;TEXT(R37/R$4, "%0.0")&amp;")"</f>
-        <v>22,132 (%8.8)</v>
+        <f t="shared" si="7"/>
+        <v>2,808 (%1.2)</v>
       </c>
       <c r="P37" s="4">
-        <v>24667</v>
+        <v>31297</v>
       </c>
       <c r="Q37" s="4">
-        <v>2535</v>
+        <v>28489</v>
       </c>
       <c r="R37" s="4">
-        <v>22132</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="8" t="str">
-        <f>TEXT(P38, "###,###")&amp;" ("&amp;TEXT(P38/P$4, "%0.0")&amp;")"</f>
-        <v>32,136 (%11.7)</v>
+        <f t="shared" si="7"/>
+        <v>107,172 (%40.3)</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f>TEXT(Q38, "###,###")&amp;" ("&amp;TEXT(Q38/Q$4, "%0.0")&amp;")"</f>
-        <v>2,905 (%12.1)</v>
+        <f t="shared" si="7"/>
+        <v>101,177 (%439.2)</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f>TEXT(R38, "###,###")&amp;" ("&amp;TEXT(R38/R$4, "%0.0")&amp;")"</f>
-        <v>29,231 (%11.7)</v>
+        <f t="shared" si="7"/>
+        <v>5,995 (%2.5)</v>
       </c>
       <c r="P38" s="4">
-        <v>32136</v>
+        <v>107172</v>
       </c>
       <c r="Q38" s="4">
-        <v>2905</v>
+        <v>101177</v>
       </c>
       <c r="R38" s="4">
-        <v>29231</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D39" s="8" t="str">
-        <f>TEXT(P39, "###,###")&amp;" ("&amp;TEXT(P39/P$4, "%0.0")&amp;")"</f>
-        <v>108,829 (%39.7)</v>
+        <f t="shared" si="7"/>
+        <v>45,955 (%17.3)</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f>TEXT(Q39, "###,###")&amp;" ("&amp;TEXT(Q39/Q$4, "%0.0")&amp;")"</f>
-        <v>6,124 (%25.6)</v>
+        <f t="shared" si="7"/>
+        <v>41,929 (%182.0)</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f>TEXT(R39, "###,###")&amp;" ("&amp;TEXT(R39/R$4, "%0.0")&amp;")"</f>
-        <v>102,705 (%41.0)</v>
+        <f t="shared" si="7"/>
+        <v>4,026 (%1.7)</v>
       </c>
       <c r="P39" s="4">
-        <v>108829</v>
+        <v>45955</v>
       </c>
       <c r="Q39" s="4">
-        <v>6124</v>
+        <v>41929</v>
       </c>
       <c r="R39" s="4">
-        <v>102705</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="8" t="str">
-        <f>TEXT(P40, "###,###")&amp;" ("&amp;TEXT(P40/P$4, "%0.0")&amp;")"</f>
-        <v>48,795 (%17.8)</v>
-      </c>
-      <c r="E40" s="8" t="str">
-        <f>TEXT(Q40, "###,###")&amp;" ("&amp;TEXT(Q40/Q$4, "%0.0")&amp;")"</f>
-        <v>4,304 (%18.0)</v>
-      </c>
-      <c r="F40" s="8" t="str">
-        <f>TEXT(R40, "###,###")&amp;" ("&amp;TEXT(R40/R$4, "%0.0")&amp;")"</f>
-        <v>44,491 (%17.8)</v>
-      </c>
-      <c r="P40" s="4">
-        <v>48795</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>4304</v>
-      </c>
-      <c r="R40" s="4">
-        <v>44491</v>
-      </c>
+      <c r="B40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>42</v>
+      <c r="B41" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="18" t="str">
+        <f t="shared" ref="D41:F43" si="8">TEXT(P41, "###,###")&amp;" ("&amp;TEXT(P41/P$4, "%0.0")&amp;")"</f>
+        <v>184,019 (%69.2)</v>
+      </c>
+      <c r="E41" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>171,459 (%744.2)</v>
+      </c>
+      <c r="F41" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>12,560 (%5.2)</v>
+      </c>
       <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
+      <c r="H41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="4">
+        <v>184019</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>171459</v>
+      </c>
+      <c r="R41" s="4">
+        <v>12560</v>
+      </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="18" t="str">
-        <f>TEXT(P42, "###,###")&amp;" ("&amp;TEXT(P42/P$4, "%0.0")&amp;")"</f>
-        <v>188,913 (%69.0)</v>
+        <f t="shared" si="8"/>
+        <v>79,602 (%29.9)</v>
       </c>
       <c r="E42" s="18" t="str">
-        <f>TEXT(Q42, "###,###")&amp;" ("&amp;TEXT(Q42/Q$4, "%0.0")&amp;")"</f>
-        <v>13,012 (%54.4)</v>
+        <f t="shared" si="8"/>
+        <v>69,465 (%301.5)</v>
       </c>
       <c r="F42" s="18" t="str">
-        <f>TEXT(R42, "###,###")&amp;" ("&amp;TEXT(R42/R$4, "%0.0")&amp;")"</f>
-        <v>175,901 (%70.2)</v>
+        <f t="shared" si="8"/>
+        <v>10,137 (%4.2)</v>
       </c>
       <c r="G42" s="17"/>
-      <c r="H42" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="H42" s="18"/>
       <c r="P42" s="4">
-        <v>188913</v>
+        <v>79602</v>
       </c>
       <c r="Q42" s="4">
-        <v>13012</v>
+        <v>69465</v>
       </c>
       <c r="R42" s="4">
-        <v>175901</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="18" t="str">
-        <f>TEXT(P43, "###,###")&amp;" ("&amp;TEXT(P43/P$4, "%0.0")&amp;")"</f>
-        <v>82,528 (%30.1)</v>
+        <f t="shared" si="8"/>
+        <v>2,488 (%0.9)</v>
       </c>
       <c r="E43" s="18" t="str">
-        <f>TEXT(Q43, "###,###")&amp;" ("&amp;TEXT(Q43/Q$4, "%0.0")&amp;")"</f>
-        <v>10,514 (%44.0)</v>
+        <f t="shared" si="8"/>
+        <v>2,146 (%9.3)</v>
       </c>
       <c r="F43" s="18" t="str">
-        <f>TEXT(R43, "###,###")&amp;" ("&amp;TEXT(R43/R$4, "%0.0")&amp;")"</f>
-        <v>72,014 (%28.8)</v>
+        <f t="shared" si="8"/>
+        <v>342 (%0.1)</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
       <c r="P43" s="4">
-        <v>82528</v>
+        <v>2488</v>
       </c>
       <c r="Q43" s="4">
-        <v>10514</v>
+        <v>2146</v>
       </c>
       <c r="R43" s="4">
-        <v>72014</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18" t="str">
-        <f>TEXT(P44, "###,###")&amp;" ("&amp;TEXT(P44/P$4, "%0.0")&amp;")"</f>
-        <v>2,868 (%1.0)</v>
-      </c>
-      <c r="E44" s="18" t="str">
-        <f>TEXT(Q44, "###,###")&amp;" ("&amp;TEXT(Q44/Q$4, "%0.0")&amp;")"</f>
-        <v>386 (%1.6)</v>
-      </c>
-      <c r="F44" s="18" t="str">
-        <f>TEXT(R44, "###,###")&amp;" ("&amp;TEXT(R44/R$4, "%0.0")&amp;")"</f>
-        <v>2,482 (%1.0)</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="P44" s="4">
-        <v>2868</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>386</v>
-      </c>
-      <c r="R44" s="4">
-        <v>2482</v>
+      <c r="B44" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>45</v>
+      <c r="B45" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f t="shared" ref="D45:F47" si="9">TEXT(P45, "###,###")&amp;" ("&amp;TEXT(P45/P$4, "%0.0")&amp;")"</f>
+        <v>215,336 (%80.9)</v>
+      </c>
+      <c r="E45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>200,585 (%870.6)</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>14,751 (%6.1)</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="4">
+        <v>215336</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>200585</v>
+      </c>
+      <c r="R45" s="4">
+        <v>14751</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" s="8" t="str">
-        <f>TEXT(P46, "###,###")&amp;" ("&amp;TEXT(P46/P$4, "%0.0")&amp;")"</f>
-        <v>221,625 (%80.9)</v>
+        <f t="shared" si="9"/>
+        <v>50,454 (%19.0)</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f>TEXT(Q46, "###,###")&amp;" ("&amp;TEXT(Q46/Q$4, "%0.0")&amp;")"</f>
-        <v>15,310 (%64.0)</v>
+        <f t="shared" si="9"/>
+        <v>42,209 (%183.2)</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f>TEXT(R46, "###,###")&amp;" ("&amp;TEXT(R46/R$4, "%0.0")&amp;")"</f>
-        <v>206,315 (%82.4)</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>33</v>
+        <f t="shared" si="9"/>
+        <v>8,245 (%3.4)</v>
       </c>
       <c r="P46" s="4">
-        <v>221625</v>
+        <v>50454</v>
       </c>
       <c r="Q46" s="4">
-        <v>15310</v>
+        <v>42209</v>
       </c>
       <c r="R46" s="4">
-        <v>206315</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D47" s="8" t="str">
-        <f>TEXT(P47, "###,###")&amp;" ("&amp;TEXT(P47/P$4, "%0.0")&amp;")"</f>
-        <v>52,328 (%19.1)</v>
+        <f t="shared" si="9"/>
+        <v>319 (%0.1)</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f>TEXT(Q47, "###,###")&amp;" ("&amp;TEXT(Q47/Q$4, "%0.0")&amp;")"</f>
-        <v>8,552 (%35.8)</v>
+        <f t="shared" si="9"/>
+        <v>276 (%1.2)</v>
       </c>
       <c r="F47" s="8" t="str">
-        <f>TEXT(R47, "###,###")&amp;" ("&amp;TEXT(R47/R$4, "%0.0")&amp;")"</f>
-        <v>43,776 (%17.5)</v>
+        <f t="shared" si="9"/>
+        <v>43 (%0.0)</v>
       </c>
       <c r="P47" s="4">
-        <v>52328</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="4">
-        <v>8552</v>
+        <v>276</v>
       </c>
       <c r="R47" s="4">
-        <v>43776</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="8" t="str">
-        <f>TEXT(P48, "###,###")&amp;" ("&amp;TEXT(P48/P$4, "%0.0")&amp;")"</f>
-        <v>356 (%0.1)</v>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f>TEXT(Q48, "###,###")&amp;" ("&amp;TEXT(Q48/Q$4, "%0.0")&amp;")"</f>
-        <v>50 (%0.2)</v>
-      </c>
-      <c r="F48" s="8" t="str">
-        <f>TEXT(R48, "###,###")&amp;" ("&amp;TEXT(R48/R$4, "%0.0")&amp;")"</f>
-        <v>306 (%0.1)</v>
-      </c>
-      <c r="P48" s="4">
-        <v>356</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="B48" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18" t="str">
+        <f t="shared" ref="D48:D52" si="10">TEXT(P48, "###,###")&amp;" ("&amp;TEXT(P48/P$4, "%0.0")&amp;")"</f>
+        <v xml:space="preserve"> (%0.0)</v>
+      </c>
+      <c r="E48" s="18" t="str">
+        <f t="shared" ref="E48:E52" si="11">TEXT(Q48, "###,###")&amp;" ("&amp;TEXT(Q48/Q$4, "%0.0")&amp;")"</f>
+        <v xml:space="preserve"> (%0.0)</v>
+      </c>
+      <c r="F48" s="18" t="str">
+        <f t="shared" ref="F48:F52" si="12">TEXT(R48, "###,###")&amp;" ("&amp;TEXT(R48/R$4, "%0.0")&amp;")"</f>
+        <v xml:space="preserve"> (%0.0)</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="R48" s="4">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="D49" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>137,300 (%51.6)</v>
+      </c>
+      <c r="E49" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>129,044 (%560.1)</v>
+      </c>
+      <c r="F49" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>8,256 (%3.4)</v>
+      </c>
       <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
+      <c r="H49" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="4">
+        <v>137300</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>129044</v>
+      </c>
+      <c r="R49" s="4">
+        <v>8256</v>
+      </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="18" t="str">
-        <f>TEXT(P50, "###,###")&amp;" ("&amp;TEXT(P50/P$4, "%0.0")&amp;")"</f>
-        <v>221,625 (%80.9)</v>
+        <f t="shared" si="10"/>
+        <v>87,579 (%32.9)</v>
       </c>
       <c r="E50" s="18" t="str">
-        <f>TEXT(Q50, "###,###")&amp;" ("&amp;TEXT(Q50/Q$4, "%0.0")&amp;")"</f>
-        <v>9,548 (%39.9)</v>
+        <f t="shared" si="11"/>
+        <v>77,544 (%336.6)</v>
       </c>
       <c r="F50" s="18" t="str">
-        <f>TEXT(R50, "###,###")&amp;" ("&amp;TEXT(R50/R$4, "%0.0")&amp;")"</f>
-        <v>68,480 (%27.3)</v>
+        <f t="shared" si="12"/>
+        <v>10,035 (%4.1)</v>
       </c>
       <c r="G50" s="17"/>
-      <c r="H50" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="H50" s="18"/>
       <c r="P50" s="4">
-        <v>221625</v>
+        <v>87579</v>
       </c>
       <c r="Q50" s="4">
-        <v>9548</v>
+        <v>77544</v>
       </c>
       <c r="R50" s="4">
-        <v>68480</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="18" t="str">
-        <f>TEXT(P51, "###,###")&amp;" ("&amp;TEXT(P51/P$4, "%0.0")&amp;")"</f>
-        <v>52,328 (%19.1)</v>
+        <f t="shared" si="10"/>
+        <v>32,585 (%12.2)</v>
       </c>
       <c r="E51" s="18" t="str">
-        <f>TEXT(Q51, "###,###")&amp;" ("&amp;TEXT(Q51/Q$4, "%0.0")&amp;")"</f>
-        <v>14,301 (%59.8)</v>
+        <f t="shared" si="11"/>
+        <v>28,545 (%123.9)</v>
       </c>
       <c r="F51" s="18" t="str">
-        <f>TEXT(R51, "###,###")&amp;" ("&amp;TEXT(R51/R$4, "%0.0")&amp;")"</f>
-        <v>181,519 (%72.5)</v>
+        <f t="shared" si="12"/>
+        <v>4,040 (%1.7)</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
       <c r="P51" s="4">
-        <v>52328</v>
+        <v>32585</v>
       </c>
       <c r="Q51" s="4">
-        <v>14301</v>
+        <v>28545</v>
       </c>
       <c r="R51" s="4">
-        <v>181519</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
@@ -2065,150 +2087,253 @@
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="18" t="str">
-        <f>TEXT(P52, "###,###")&amp;" ("&amp;TEXT(P52/P$4, "%0.0")&amp;")"</f>
-        <v>356 (%0.1)</v>
+        <f t="shared" si="10"/>
+        <v>8,645 (%3.2)</v>
       </c>
       <c r="E52" s="18" t="str">
-        <f>TEXT(Q52, "###,###")&amp;" ("&amp;TEXT(Q52/Q$4, "%0.0")&amp;")"</f>
-        <v>63 (%0.3)</v>
+        <f t="shared" si="11"/>
+        <v>7,937 (%34.5)</v>
       </c>
       <c r="F52" s="18" t="str">
-        <f>TEXT(R52, "###,###")&amp;" ("&amp;TEXT(R52/R$4, "%0.0")&amp;")"</f>
-        <v>398 (%0.2)</v>
+        <f t="shared" si="12"/>
+        <v>708 (%0.3)</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="18"/>
       <c r="P52" s="4">
-        <v>356</v>
+        <v>8645</v>
       </c>
       <c r="Q52" s="4">
-        <v>63</v>
+        <v>7937</v>
       </c>
       <c r="R52" s="4">
-        <v>398</v>
+        <v>708</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="23" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D54" s="8" t="str">
-        <f>TEXT(P54, "###,###")&amp;" ("&amp;TEXT(P54/P$4, "%0.0")&amp;")"</f>
-        <v>3,918 (%1.4)</v>
+        <f t="shared" ref="D54:F56" si="13">TEXT(P54, "###,###")&amp;" ("&amp;TEXT(P54/P$4, "%0.0")&amp;")"</f>
+        <v>74,872 (%28.1)</v>
       </c>
       <c r="E54" s="8" t="str">
-        <f>TEXT(Q54, "###,###")&amp;" ("&amp;TEXT(Q54/Q$4, "%0.0")&amp;")"</f>
-        <v>413 (%1.7)</v>
+        <f t="shared" si="13"/>
+        <v>65,745 (%285.4)</v>
       </c>
       <c r="F54" s="8" t="str">
-        <f>TEXT(R54, "###,###")&amp;" ("&amp;TEXT(R54/R$4, "%0.0")&amp;")"</f>
-        <v>3,505 (%1.4)</v>
+        <f t="shared" si="13"/>
+        <v>9,127 (%3.8)</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>33</v>
       </c>
       <c r="P54" s="4">
-        <v>3918</v>
+        <v>74872</v>
       </c>
       <c r="Q54" s="4">
-        <v>413</v>
+        <v>65745</v>
       </c>
       <c r="R54" s="4">
-        <v>3505</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D55" s="8" t="str">
-        <f>TEXT(P55, "###,###")&amp;" ("&amp;TEXT(P55/P$4, "%0.0")&amp;")"</f>
-        <v>73,615 (%26.9)</v>
+        <f t="shared" si="13"/>
+        <v>190,834 (%71.7)</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f>TEXT(Q55, "###,###")&amp;" ("&amp;TEXT(Q55/Q$4, "%0.0")&amp;")"</f>
-        <v>5,286 (%22.1)</v>
+        <f t="shared" si="13"/>
+        <v>176,979 (%768.2)</v>
       </c>
       <c r="F55" s="8" t="str">
-        <f>TEXT(R55, "###,###")&amp;" ("&amp;TEXT(R55/R$4, "%0.0")&amp;")"</f>
-        <v>68,329 (%27.3)</v>
+        <f t="shared" si="13"/>
+        <v>13,855 (%5.7)</v>
       </c>
       <c r="P55" s="4">
-        <v>73615</v>
+        <v>190834</v>
       </c>
       <c r="Q55" s="4">
-        <v>5286</v>
+        <v>176979</v>
       </c>
       <c r="R55" s="4">
-        <v>68329</v>
+        <v>13855</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>403 (%0.2)</v>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>346 (%1.5)</v>
+      </c>
+      <c r="F56" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>57 (%0.0)</v>
+      </c>
+      <c r="P56" s="4">
+        <v>403</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>346</v>
+      </c>
+      <c r="R56" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18" t="str">
+        <f t="shared" ref="D58:F61" si="14">TEXT(P58, "###,###")&amp;" ("&amp;TEXT(P58/P$4, "%0.0")&amp;")"</f>
+        <v>3,744 (%1.4)</v>
+      </c>
+      <c r="E58" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>3,346 (%14.5)</v>
+      </c>
+      <c r="F58" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>398 (%0.2)</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="4">
+        <v>3744</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>3346</v>
+      </c>
+      <c r="R58" s="4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>71,464 (%26.9)</v>
+      </c>
+      <c r="E59" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>66,387 (%288.2)</v>
+      </c>
+      <c r="F59" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>5,077 (%2.1)</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="P59" s="4">
+        <v>71464</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>66387</v>
+      </c>
+      <c r="R59" s="4">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="8" t="str">
-        <f>TEXT(P56, "###,###")&amp;" ("&amp;TEXT(P56/P$4, "%0.0")&amp;")"</f>
-        <v>96,097 (%35.1)</v>
-      </c>
-      <c r="E56" s="8" t="str">
-        <f>TEXT(Q56, "###,###")&amp;" ("&amp;TEXT(Q56/Q$4, "%0.0")&amp;")"</f>
-        <v>8,444 (%35.3)</v>
-      </c>
-      <c r="F56" s="8" t="str">
-        <f>TEXT(R56, "###,###")&amp;" ("&amp;TEXT(R56/R$4, "%0.0")&amp;")"</f>
-        <v>87,653 (%35.0)</v>
-      </c>
-      <c r="P56" s="4">
-        <v>96097</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>8444</v>
-      </c>
-      <c r="R56" s="4">
-        <v>87653</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>93,529 (%35.1)</v>
+      </c>
+      <c r="E60" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>85,387 (%370.6)</v>
+      </c>
+      <c r="F60" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>8,142 (%3.3)</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="P60" s="4">
+        <v>93529</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>85387</v>
+      </c>
+      <c r="R60" s="4">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="8" t="str">
-        <f>TEXT(P57, "###,###")&amp;" ("&amp;TEXT(P57/P$4, "%0.0")&amp;")"</f>
-        <v>82,631 (%30.2)</v>
-      </c>
-      <c r="E57" s="8" t="str">
-        <f>TEXT(Q57, "###,###")&amp;" ("&amp;TEXT(Q57/Q$4, "%0.0")&amp;")"</f>
-        <v>8,590 (%35.9)</v>
-      </c>
-      <c r="F57" s="8" t="str">
-        <f>TEXT(R57, "###,###")&amp;" ("&amp;TEXT(R57/R$4, "%0.0")&amp;")"</f>
-        <v>74,041 (%29.6)</v>
-      </c>
-      <c r="P57" s="4">
-        <v>82631</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>8590</v>
-      </c>
-      <c r="R57" s="4">
-        <v>74041</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="P58" s="4">
-        <v>18048</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>1179</v>
-      </c>
-      <c r="R58" s="4">
-        <v>16869</v>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>80,423 (%30.2)</v>
+      </c>
+      <c r="E61" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>72,088 (%312.9)</v>
+      </c>
+      <c r="F61" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>8,335 (%3.4)</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="P61" s="4">
+        <v>80423</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>72088</v>
+      </c>
+      <c r="R61" s="4">
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P62" s="4">
+        <v>16949</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>15862</v>
+      </c>
+      <c r="R62" s="4">
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2350,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/output/table1.xlsx
+++ b/docs/output/table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\cvd-and-teeth\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D4128-F915-4BC1-A0E6-7D6C1A927947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6140C2AE-D625-47D7-8D10-066ACFAE7AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,9 +386,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +418,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,9 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +467,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E404A3FE-888E-472E-B8B2-A1164334D2AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6615E8F-3AD1-4907-A8DC-7D70144537C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,11 +810,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1547F-4FEB-40FA-9FA4-C2615748DE86}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -840,8 +835,8 @@
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
@@ -852,23 +847,23 @@
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="9"/>
@@ -888,8 +883,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="str">
@@ -914,155 +909,174 @@
       <c r="R4" s="3">
         <v>243070</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="T4" s="3">
+        <v>243070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
       <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16"/>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="str">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="str">
         <f>TEXT(P7, "###,###")&amp;" ("&amp;TEXT(P7/P$4, "%0.0")&amp;")"</f>
         <v>104,802 (%39.4)</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="17" t="str">
         <f t="shared" ref="E7" si="0">TEXT(Q7, "###,###")&amp;" ("&amp;TEXT(Q7/Q$4, "%0.0")&amp;")"</f>
-        <v>99,474 (%431.8)</v>
-      </c>
-      <c r="F7" s="18" t="str">
+        <v>5,328 (%23.1)</v>
+      </c>
+      <c r="F7" s="17" t="str">
         <f t="shared" ref="F7" si="1">TEXT(R7, "###,###")&amp;" ("&amp;TEXT(R7/R$4, "%0.0")&amp;")"</f>
-        <v>5,328 (%2.2)</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+        <v>99,474 (%40.9)</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="I7" s="16"/>
       <c r="N7" s="11"/>
       <c r="O7" s="6"/>
       <c r="P7" s="4">
         <v>104802</v>
       </c>
       <c r="Q7" s="4">
+        <v>5328</v>
+      </c>
+      <c r="R7" s="4">
         <v>99474</v>
       </c>
-      <c r="R7" s="4">
+      <c r="T7" s="4">
         <v>5328</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="str">
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="str">
         <f>TEXT(P8, "###,###")&amp;" ("&amp;TEXT(P8/P$4, "%0.0")&amp;")"</f>
         <v>90,192 (%33.9)</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="17" t="str">
         <f t="shared" ref="E8:F10" si="2">TEXT(Q8, "###,###")&amp;" ("&amp;TEXT(Q8/Q$4, "%0.0")&amp;")"</f>
-        <v>83,224 (%361.2)</v>
-      </c>
-      <c r="F8" s="18" t="str">
+        <v>6,968 (%30.2)</v>
+      </c>
+      <c r="F8" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>6,968 (%2.9)</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="12"/>
+        <v>83,224 (%34.2)</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
       <c r="N8" s="11"/>
       <c r="O8" s="6"/>
       <c r="P8" s="4">
         <v>90192</v>
       </c>
       <c r="Q8" s="4">
+        <v>6968</v>
+      </c>
+      <c r="R8" s="4">
         <v>83224</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <v>6968</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18" t="str">
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="str">
         <f>TEXT(P9, "###,###")&amp;" ("&amp;TEXT(P9/P$4, "%0.0")&amp;")"</f>
         <v>44,317 (%16.7)</v>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>38,416 (%166.7)</v>
-      </c>
-      <c r="F9" s="18" t="str">
+        <v>5,901 (%25.6)</v>
+      </c>
+      <c r="F9" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>5,901 (%2.4)</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="12"/>
+        <v>38,416 (%15.8)</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
       <c r="N9" s="11"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4">
         <v>44317</v>
       </c>
       <c r="Q9" s="4">
+        <v>5901</v>
+      </c>
+      <c r="R9" s="4">
         <v>38416</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <v>5901</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18" t="str">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="str">
         <f>TEXT(P10, "###,###")&amp;" ("&amp;TEXT(P10/P$4, "%0.0")&amp;")"</f>
         <v>26,798 (%10.1)</v>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>21,956 (%95.3)</v>
-      </c>
-      <c r="F10" s="18" t="str">
+        <v>4,842 (%21.0)</v>
+      </c>
+      <c r="F10" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>4,842 (%2.0)</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="12"/>
+        <v>21,956 (%9.0)</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
       <c r="N10" s="11"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4">
         <v>26798</v>
       </c>
       <c r="Q10" s="4">
+        <v>4842</v>
+      </c>
+      <c r="R10" s="4">
         <v>21956</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <v>4842</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="7"/>
@@ -1077,13 +1091,14 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="str">
@@ -1092,11 +1107,11 @@
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>140,812 (%611.2)</v>
+        <v>9,140 (%39.7)</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>9,140 (%3.8)</v>
+        <v>140,812 (%57.9)</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>33</v>
@@ -1107,14 +1122,17 @@
         <v>149952</v>
       </c>
       <c r="Q12" s="4">
+        <v>9140</v>
+      </c>
+      <c r="R12" s="4">
         <v>140812</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <v>9140</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="str">
@@ -1123,24 +1141,27 @@
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>101,864 (%442.1)</v>
+        <v>13,850 (%60.1)</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>13,850 (%5.7)</v>
+        <v>101,864 (%41.9)</v>
       </c>
       <c r="P13" s="4">
         <v>115714</v>
       </c>
       <c r="Q13" s="4">
+        <v>13850</v>
+      </c>
+      <c r="R13" s="4">
         <v>101864</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <v>13850</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="8" t="str">
@@ -1149,216 +1170,246 @@
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>394 (%1.7)</v>
+        <v>49 (%0.2)</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>49 (%0.0)</v>
+        <v>394 (%0.2)</v>
       </c>
       <c r="P14" s="4">
         <v>443</v>
       </c>
       <c r="Q14" s="4">
+        <v>49</v>
+      </c>
+      <c r="R14" s="4">
         <v>394</v>
       </c>
-      <c r="R14" s="4">
+      <c r="T14" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="str">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="str">
         <f t="shared" ref="D16:F21" si="4">TEXT(P16, "###,###")&amp;" ("&amp;TEXT(P16/P$4, "%0.0")&amp;")"</f>
         <v>214,832 (%80.7)</v>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>196,315 (%852.1)</v>
-      </c>
-      <c r="F16" s="18" t="str">
+        <v>18,517 (%80.4)</v>
+      </c>
+      <c r="F16" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>18,517 (%7.6)</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="s">
+        <v>196,315 (%80.8)</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="I16" s="16"/>
       <c r="P16" s="4">
         <v>214832</v>
       </c>
       <c r="Q16" s="4">
+        <v>18517</v>
+      </c>
+      <c r="R16" s="4">
         <v>196315</v>
       </c>
-      <c r="R16" s="4">
+      <c r="T16" s="4">
         <v>18517</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="str">
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="str">
         <f t="shared" si="4"/>
         <v>20,092 (%7.6)</v>
       </c>
-      <c r="E17" s="18" t="str">
+      <c r="E17" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>18,487 (%80.2)</v>
-      </c>
-      <c r="F17" s="18" t="str">
+        <v>1,605 (%7.0)</v>
+      </c>
+      <c r="F17" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1,605 (%0.7)</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+        <v>18,487 (%7.6)</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
       <c r="P17" s="4">
         <v>20092</v>
       </c>
       <c r="Q17" s="4">
+        <v>1605</v>
+      </c>
+      <c r="R17" s="4">
         <v>18487</v>
       </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
         <v>1605</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18" t="str">
+      <c r="C18" s="16"/>
+      <c r="D18" s="17" t="str">
         <f t="shared" si="4"/>
         <v>13,614 (%5.1)</v>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>12,573 (%54.6)</v>
-      </c>
-      <c r="F18" s="18" t="str">
+        <v>1,041 (%4.5)</v>
+      </c>
+      <c r="F18" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1,041 (%0.4)</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+        <v>12,573 (%5.2)</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
       <c r="P18" s="4">
         <v>13614</v>
       </c>
       <c r="Q18" s="4">
+        <v>1041</v>
+      </c>
+      <c r="R18" s="4">
         <v>12573</v>
       </c>
-      <c r="R18" s="4">
+      <c r="T18" s="4">
         <v>1041</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18" t="str">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="str">
         <f t="shared" si="4"/>
         <v>3,541 (%1.3)</v>
       </c>
-      <c r="E19" s="18" t="str">
+      <c r="E19" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3,353 (%14.6)</v>
-      </c>
-      <c r="F19" s="18" t="str">
+        <v>188 (%0.8)</v>
+      </c>
+      <c r="F19" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>188 (%0.1)</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+        <v>3,353 (%1.4)</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
       <c r="P19" s="4">
         <v>3541</v>
       </c>
       <c r="Q19" s="4">
+        <v>188</v>
+      </c>
+      <c r="R19" s="4">
         <v>3353</v>
       </c>
-      <c r="R19" s="4">
+      <c r="T19" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18" t="str">
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="str">
         <f t="shared" si="4"/>
         <v>11,005 (%4.1)</v>
       </c>
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>9,591 (%41.6)</v>
-      </c>
-      <c r="F20" s="18" t="str">
+        <v>1,414 (%6.1)</v>
+      </c>
+      <c r="F20" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1,414 (%0.6)</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+        <v>9,591 (%3.9)</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="16"/>
       <c r="P20" s="4">
         <v>11005</v>
       </c>
       <c r="Q20" s="4">
+        <v>1414</v>
+      </c>
+      <c r="R20" s="4">
         <v>9591</v>
       </c>
-      <c r="R20" s="4">
+      <c r="T20" s="4">
         <v>1414</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18" t="str">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="str">
         <f t="shared" si="4"/>
         <v>3,025 (%1.1)</v>
       </c>
-      <c r="E21" s="18" t="str">
+      <c r="E21" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2,751 (%11.9)</v>
-      </c>
-      <c r="F21" s="18" t="str">
+        <v>274 (%1.2)</v>
+      </c>
+      <c r="F21" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>274 (%0.1)</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+        <v>2,751 (%1.1)</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
       <c r="P21" s="4">
         <v>3025</v>
       </c>
       <c r="Q21" s="4">
+        <v>274</v>
+      </c>
+      <c r="R21" s="4">
         <v>2751</v>
       </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="8" t="str">
@@ -1367,11 +1418,11 @@
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>71,844 (%311.8)</v>
+        <v>3,743 (%16.2)</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3,743 (%1.5)</v>
+        <v>71,844 (%29.6)</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>33</v>
@@ -1380,14 +1431,17 @@
         <v>75587</v>
       </c>
       <c r="Q23" s="4">
+        <v>3743</v>
+      </c>
+      <c r="R23" s="4">
         <v>71844</v>
       </c>
-      <c r="R23" s="4">
+      <c r="T23" s="4">
         <v>3743</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="str">
@@ -1396,24 +1450,27 @@
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>84,682 (%367.6)</v>
+        <v>7,030 (%30.5)</v>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>7,030 (%2.9)</v>
+        <v>84,682 (%34.8)</v>
       </c>
       <c r="P24" s="4">
         <v>91712</v>
       </c>
       <c r="Q24" s="4">
+        <v>7030</v>
+      </c>
+      <c r="R24" s="4">
         <v>84682</v>
       </c>
-      <c r="R24" s="4">
+      <c r="T24" s="4">
         <v>7030</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="8" t="str">
@@ -1422,24 +1479,27 @@
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>59,023 (%256.2)</v>
+        <v>7,556 (%32.8)</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>7,556 (%3.1)</v>
+        <v>59,023 (%24.3)</v>
       </c>
       <c r="P25" s="4">
         <v>66579</v>
       </c>
       <c r="Q25" s="4">
+        <v>7556</v>
+      </c>
+      <c r="R25" s="4">
         <v>59023</v>
       </c>
-      <c r="R25" s="4">
+      <c r="T25" s="4">
         <v>7556</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="8" t="str">
@@ -1448,187 +1508,213 @@
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>27,521 (%119.5)</v>
+        <v>4,710 (%20.4)</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4,710 (%1.9)</v>
+        <v>27,521 (%11.3)</v>
       </c>
       <c r="P26" s="4">
         <v>32231</v>
       </c>
       <c r="Q26" s="4">
+        <v>4710</v>
+      </c>
+      <c r="R26" s="4">
         <v>27521</v>
       </c>
-      <c r="R26" s="4">
+      <c r="T26" s="4">
         <v>4710</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="16"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18" t="str">
+      <c r="C28" s="16"/>
+      <c r="D28" s="17" t="str">
         <f t="shared" ref="D28:F32" si="6">TEXT(P28, "###,###")&amp;" ("&amp;TEXT(P28/P$4, "%0.0")&amp;")"</f>
         <v>19,556 (%7.3)</v>
       </c>
-      <c r="E28" s="18" t="str">
+      <c r="E28" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>16,597 (%72.0)</v>
-      </c>
-      <c r="F28" s="18" t="str">
+        <v>2,959 (%12.8)</v>
+      </c>
+      <c r="F28" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2,959 (%1.2)</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18" t="s">
+        <v>16,597 (%6.8)</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="I28" s="16"/>
       <c r="P28" s="4">
         <v>19556</v>
       </c>
       <c r="Q28" s="4">
+        <v>2959</v>
+      </c>
+      <c r="R28" s="4">
         <v>16597</v>
       </c>
-      <c r="R28" s="4">
+      <c r="T28" s="4">
         <v>2959</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18" t="str">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="str">
         <f t="shared" si="6"/>
         <v>73,987 (%27.8)</v>
       </c>
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>66,354 (%288.0)</v>
-      </c>
-      <c r="F29" s="18" t="str">
+        <v>7,633 (%33.1)</v>
+      </c>
+      <c r="F29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>7,633 (%3.1)</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+        <v>66,354 (%27.3)</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16"/>
       <c r="P29" s="4">
         <v>73987</v>
       </c>
       <c r="Q29" s="4">
+        <v>7633</v>
+      </c>
+      <c r="R29" s="4">
         <v>66354</v>
       </c>
-      <c r="R29" s="4">
+      <c r="T29" s="4">
         <v>7633</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18" t="str">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="str">
         <f t="shared" si="6"/>
         <v>72,146 (%27.1)</v>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>65,734 (%285.3)</v>
-      </c>
-      <c r="F30" s="18" t="str">
+        <v>6,412 (%27.8)</v>
+      </c>
+      <c r="F30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6,412 (%2.6)</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+        <v>65,734 (%27.0)</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="16"/>
       <c r="P30" s="4">
         <v>72146</v>
       </c>
       <c r="Q30" s="4">
+        <v>6412</v>
+      </c>
+      <c r="R30" s="4">
         <v>65734</v>
       </c>
-      <c r="R30" s="4">
+      <c r="T30" s="4">
         <v>6412</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18" t="str">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17" t="str">
         <f t="shared" si="6"/>
         <v>99,900 (%37.5)</v>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>93,910 (%407.6)</v>
-      </c>
-      <c r="F31" s="18" t="str">
+        <v>5,990 (%26.0)</v>
+      </c>
+      <c r="F31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5,990 (%2.5)</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+        <v>93,910 (%38.6)</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="16"/>
       <c r="P31" s="4">
         <v>99900</v>
       </c>
       <c r="Q31" s="4">
+        <v>5990</v>
+      </c>
+      <c r="R31" s="4">
         <v>93910</v>
       </c>
-      <c r="R31" s="4">
+      <c r="T31" s="4">
         <v>5990</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18" t="str">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17" t="str">
         <f t="shared" si="6"/>
         <v>520 (%0.2)</v>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>475 (%2.1)</v>
-      </c>
-      <c r="F32" s="18" t="str">
+        <v>45 (%0.2)</v>
+      </c>
+      <c r="F32" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>45 (%0.0)</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+        <v>475 (%0.2)</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16"/>
       <c r="P32" s="4">
         <v>520</v>
       </c>
       <c r="Q32" s="4">
+        <v>45</v>
+      </c>
+      <c r="R32" s="4">
         <v>475</v>
       </c>
-      <c r="R32" s="4">
+      <c r="T32" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="8" t="str">
@@ -1637,11 +1723,11 @@
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>18,498 (%80.3)</v>
+        <v>3,139 (%13.6)</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>3,139 (%1.3)</v>
+        <v>18,498 (%7.6)</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>33</v>
@@ -1650,14 +1736,17 @@
         <v>21637</v>
       </c>
       <c r="Q34" s="4">
+        <v>3139</v>
+      </c>
+      <c r="R34" s="4">
         <v>18498</v>
       </c>
-      <c r="R34" s="4">
+      <c r="T34" s="4">
         <v>3139</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="8" t="str">
@@ -1666,24 +1755,27 @@
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>31,488 (%136.7)</v>
+        <v>4,613 (%20.0)</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>4,613 (%1.9)</v>
+        <v>31,488 (%13.0)</v>
       </c>
       <c r="P35" s="4">
         <v>36101</v>
       </c>
       <c r="Q35" s="4">
+        <v>4613</v>
+      </c>
+      <c r="R35" s="4">
         <v>31488</v>
       </c>
-      <c r="R35" s="4">
+      <c r="T35" s="4">
         <v>4613</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="8" t="str">
@@ -1692,24 +1784,27 @@
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>21,489 (%93.3)</v>
+        <v>2,458 (%10.7)</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2,458 (%1.0)</v>
+        <v>21,489 (%8.8)</v>
       </c>
       <c r="P36" s="4">
         <v>23947</v>
       </c>
       <c r="Q36" s="4">
+        <v>2458</v>
+      </c>
+      <c r="R36" s="4">
         <v>21489</v>
       </c>
-      <c r="R36" s="4">
+      <c r="T36" s="4">
         <v>2458</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="8" t="str">
@@ -1718,24 +1813,27 @@
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>28,489 (%123.7)</v>
+        <v>2,808 (%12.2)</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2,808 (%1.2)</v>
+        <v>28,489 (%11.7)</v>
       </c>
       <c r="P37" s="4">
         <v>31297</v>
       </c>
       <c r="Q37" s="4">
+        <v>2808</v>
+      </c>
+      <c r="R37" s="4">
         <v>28489</v>
       </c>
-      <c r="R37" s="4">
+      <c r="T37" s="4">
         <v>2808</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="8" t="str">
@@ -1744,24 +1842,27 @@
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>101,177 (%439.2)</v>
+        <v>5,995 (%26.0)</v>
       </c>
       <c r="F38" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>5,995 (%2.5)</v>
+        <v>101,177 (%41.6)</v>
       </c>
       <c r="P38" s="4">
         <v>107172</v>
       </c>
       <c r="Q38" s="4">
+        <v>5995</v>
+      </c>
+      <c r="R38" s="4">
         <v>101177</v>
       </c>
-      <c r="R38" s="4">
+      <c r="T38" s="4">
         <v>5995</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="8" t="str">
@@ -1770,129 +1871,147 @@
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>41,929 (%182.0)</v>
+        <v>4,026 (%17.5)</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>4,026 (%1.7)</v>
+        <v>41,929 (%17.2)</v>
       </c>
       <c r="P39" s="4">
         <v>45955</v>
       </c>
       <c r="Q39" s="4">
+        <v>4026</v>
+      </c>
+      <c r="R39" s="4">
         <v>41929</v>
       </c>
-      <c r="R39" s="4">
+      <c r="T39" s="4">
         <v>4026</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18" t="str">
+      <c r="C41" s="16"/>
+      <c r="D41" s="17" t="str">
         <f t="shared" ref="D41:F43" si="8">TEXT(P41, "###,###")&amp;" ("&amp;TEXT(P41/P$4, "%0.0")&amp;")"</f>
         <v>184,019 (%69.2)</v>
       </c>
-      <c r="E41" s="18" t="str">
+      <c r="E41" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>171,459 (%744.2)</v>
-      </c>
-      <c r="F41" s="18" t="str">
+        <v>12,560 (%54.5)</v>
+      </c>
+      <c r="F41" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>12,560 (%5.2)</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18" t="s">
+        <v>171,459 (%70.5)</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="I41" s="16"/>
       <c r="P41" s="4">
         <v>184019</v>
       </c>
       <c r="Q41" s="4">
+        <v>12560</v>
+      </c>
+      <c r="R41" s="4">
         <v>171459</v>
       </c>
-      <c r="R41" s="4">
+      <c r="T41" s="4">
         <v>12560</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18" t="str">
+      <c r="C42" s="16"/>
+      <c r="D42" s="17" t="str">
         <f t="shared" si="8"/>
         <v>79,602 (%29.9)</v>
       </c>
-      <c r="E42" s="18" t="str">
+      <c r="E42" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>69,465 (%301.5)</v>
-      </c>
-      <c r="F42" s="18" t="str">
+        <v>10,137 (%44.0)</v>
+      </c>
+      <c r="F42" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>10,137 (%4.2)</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+        <v>69,465 (%28.6)</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16"/>
       <c r="P42" s="4">
         <v>79602</v>
       </c>
       <c r="Q42" s="4">
+        <v>10137</v>
+      </c>
+      <c r="R42" s="4">
         <v>69465</v>
       </c>
-      <c r="R42" s="4">
+      <c r="T42" s="4">
         <v>10137</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18" t="str">
+      <c r="C43" s="16"/>
+      <c r="D43" s="17" t="str">
         <f t="shared" si="8"/>
         <v>2,488 (%0.9)</v>
       </c>
-      <c r="E43" s="18" t="str">
+      <c r="E43" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>2,146 (%9.3)</v>
-      </c>
-      <c r="F43" s="18" t="str">
+        <v>342 (%1.5)</v>
+      </c>
+      <c r="F43" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>342 (%0.1)</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
+        <v>2,146 (%0.9)</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="16"/>
       <c r="P43" s="4">
         <v>2488</v>
       </c>
       <c r="Q43" s="4">
+        <v>342</v>
+      </c>
+      <c r="R43" s="4">
         <v>2146</v>
       </c>
-      <c r="R43" s="4">
+      <c r="T43" s="4">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="8" t="str">
@@ -1901,11 +2020,11 @@
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>200,585 (%870.6)</v>
+        <v>14,751 (%64.0)</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>14,751 (%6.1)</v>
+        <v>200,585 (%82.5)</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>33</v>
@@ -1914,14 +2033,17 @@
         <v>215336</v>
       </c>
       <c r="Q45" s="4">
+        <v>14751</v>
+      </c>
+      <c r="R45" s="4">
         <v>200585</v>
       </c>
-      <c r="R45" s="4">
+      <c r="T45" s="4">
         <v>14751</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="8" t="str">
@@ -1930,24 +2052,27 @@
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>42,209 (%183.2)</v>
+        <v>8,245 (%35.8)</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>8,245 (%3.4)</v>
+        <v>42,209 (%17.4)</v>
       </c>
       <c r="P46" s="4">
         <v>50454</v>
       </c>
       <c r="Q46" s="4">
+        <v>8245</v>
+      </c>
+      <c r="R46" s="4">
         <v>42209</v>
       </c>
-      <c r="R46" s="4">
+      <c r="T46" s="4">
         <v>8245</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="8" t="str">
@@ -1956,167 +2081,180 @@
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>276 (%1.2)</v>
+        <v>43 (%0.2)</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>43 (%0.0)</v>
+        <v>276 (%0.1)</v>
       </c>
       <c r="P47" s="4">
         <v>319</v>
       </c>
       <c r="Q47" s="4">
+        <v>43</v>
+      </c>
+      <c r="R47" s="4">
         <v>276</v>
       </c>
-      <c r="R47" s="4">
+      <c r="T47" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="30" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18" t="str">
-        <f t="shared" ref="D48:D52" si="10">TEXT(P48, "###,###")&amp;" ("&amp;TEXT(P48/P$4, "%0.0")&amp;")"</f>
-        <v xml:space="preserve"> (%0.0)</v>
-      </c>
-      <c r="E48" s="18" t="str">
-        <f t="shared" ref="E48:E52" si="11">TEXT(Q48, "###,###")&amp;" ("&amp;TEXT(Q48/Q$4, "%0.0")&amp;")"</f>
-        <v xml:space="preserve"> (%0.0)</v>
-      </c>
-      <c r="F48" s="18" t="str">
-        <f t="shared" ref="F48:F52" si="12">TEXT(R48, "###,###")&amp;" ("&amp;TEXT(R48/R$4, "%0.0")&amp;")"</f>
-        <v xml:space="preserve"> (%0.0)</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="16"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18" t="str">
-        <f t="shared" si="10"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17" t="str">
+        <f t="shared" ref="D48:D52" si="10">TEXT(P49, "###,###")&amp;" ("&amp;TEXT(P49/P$4, "%0.0")&amp;")"</f>
         <v>137,300 (%51.6)</v>
       </c>
-      <c r="E49" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>129,044 (%560.1)</v>
-      </c>
-      <c r="F49" s="18" t="str">
-        <f t="shared" si="12"/>
-        <v>8,256 (%3.4)</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18" t="s">
+      <c r="E49" s="17" t="str">
+        <f t="shared" ref="E48:E52" si="11">TEXT(Q49, "###,###")&amp;" ("&amp;TEXT(Q49/Q$4, "%0.0")&amp;")"</f>
+        <v>8,256 (%35.8)</v>
+      </c>
+      <c r="F49" s="17" t="str">
+        <f t="shared" ref="F48:F52" si="12">TEXT(R49, "###,###")&amp;" ("&amp;TEXT(R49/R$4, "%0.0")&amp;")"</f>
+        <v>129,044 (%53.1)</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="I49" s="16"/>
       <c r="P49" s="4">
         <v>137300</v>
       </c>
       <c r="Q49" s="4">
+        <v>8256</v>
+      </c>
+      <c r="R49" s="4">
         <v>129044</v>
       </c>
-      <c r="R49" s="4">
+      <c r="T49" s="4">
         <v>8256</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18" t="str">
+      <c r="C50" s="16"/>
+      <c r="D50" s="17" t="str">
         <f t="shared" si="10"/>
         <v>87,579 (%32.9)</v>
       </c>
-      <c r="E50" s="18" t="str">
+      <c r="E50" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>77,544 (%336.6)</v>
-      </c>
-      <c r="F50" s="18" t="str">
+        <v>10,035 (%43.6)</v>
+      </c>
+      <c r="F50" s="17" t="str">
         <f t="shared" si="12"/>
-        <v>10,035 (%4.1)</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
+        <v>77,544 (%31.9)</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="16"/>
       <c r="P50" s="4">
         <v>87579</v>
       </c>
       <c r="Q50" s="4">
+        <v>10035</v>
+      </c>
+      <c r="R50" s="4">
         <v>77544</v>
       </c>
-      <c r="R50" s="4">
+      <c r="T50" s="4">
         <v>10035</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18" t="str">
+      <c r="C51" s="16"/>
+      <c r="D51" s="17" t="str">
         <f t="shared" si="10"/>
         <v>32,585 (%12.2)</v>
       </c>
-      <c r="E51" s="18" t="str">
+      <c r="E51" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>28,545 (%123.9)</v>
-      </c>
-      <c r="F51" s="18" t="str">
+        <v>4,040 (%17.5)</v>
+      </c>
+      <c r="F51" s="17" t="str">
         <f t="shared" si="12"/>
-        <v>4,040 (%1.7)</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
+        <v>28,545 (%11.7)</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
       <c r="P51" s="4">
         <v>32585</v>
       </c>
       <c r="Q51" s="4">
+        <v>4040</v>
+      </c>
+      <c r="R51" s="4">
         <v>28545</v>
       </c>
-      <c r="R51" s="4">
+      <c r="T51" s="4">
         <v>4040</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18" t="str">
+      <c r="C52" s="16"/>
+      <c r="D52" s="17" t="str">
         <f t="shared" si="10"/>
         <v>8,645 (%3.2)</v>
       </c>
-      <c r="E52" s="18" t="str">
+      <c r="E52" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>7,937 (%34.5)</v>
-      </c>
-      <c r="F52" s="18" t="str">
+        <v>708 (%3.1)</v>
+      </c>
+      <c r="F52" s="17" t="str">
         <f t="shared" si="12"/>
-        <v>708 (%0.3)</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
+        <v>7,937 (%3.3)</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="16"/>
       <c r="P52" s="4">
         <v>8645</v>
       </c>
       <c r="Q52" s="4">
+        <v>708</v>
+      </c>
+      <c r="R52" s="4">
         <v>7937</v>
       </c>
-      <c r="R52" s="4">
+      <c r="T52" s="4">
         <v>708</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="8" t="str">
@@ -2125,11 +2263,11 @@
       </c>
       <c r="E54" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>65,745 (%285.4)</v>
+        <v>9,127 (%39.6)</v>
       </c>
       <c r="F54" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>9,127 (%3.8)</v>
+        <v>65,745 (%27.0)</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>33</v>
@@ -2138,14 +2276,17 @@
         <v>74872</v>
       </c>
       <c r="Q54" s="4">
+        <v>9127</v>
+      </c>
+      <c r="R54" s="4">
         <v>65745</v>
       </c>
-      <c r="R54" s="4">
+      <c r="T54" s="4">
         <v>9127</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="23" t="s">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="8" t="str">
@@ -2154,24 +2295,27 @@
       </c>
       <c r="E55" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>176,979 (%768.2)</v>
+        <v>13,855 (%60.1)</v>
       </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>13,855 (%5.7)</v>
+        <v>176,979 (%72.8)</v>
       </c>
       <c r="P55" s="4">
         <v>190834</v>
       </c>
       <c r="Q55" s="4">
+        <v>13855</v>
+      </c>
+      <c r="R55" s="4">
         <v>176979</v>
       </c>
-      <c r="R55" s="4">
+      <c r="T55" s="4">
         <v>13855</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D56" s="8" t="str">
@@ -2180,159 +2324,183 @@
       </c>
       <c r="E56" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>346 (%1.5)</v>
+        <v>57 (%0.2)</v>
       </c>
       <c r="F56" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>57 (%0.0)</v>
+        <v>346 (%0.1)</v>
       </c>
       <c r="P56" s="4">
         <v>403</v>
       </c>
       <c r="Q56" s="4">
+        <v>57</v>
+      </c>
+      <c r="R56" s="4">
         <v>346</v>
       </c>
-      <c r="R56" s="4">
+      <c r="T56" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="16"/>
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18" t="str">
+      <c r="C58" s="16"/>
+      <c r="D58" s="17" t="str">
         <f t="shared" ref="D58:F61" si="14">TEXT(P58, "###,###")&amp;" ("&amp;TEXT(P58/P$4, "%0.0")&amp;")"</f>
         <v>3,744 (%1.4)</v>
       </c>
-      <c r="E58" s="18" t="str">
+      <c r="E58" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>3,346 (%14.5)</v>
-      </c>
-      <c r="F58" s="18" t="str">
+        <v>398 (%1.7)</v>
+      </c>
+      <c r="F58" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>398 (%0.2)</v>
-      </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18" t="s">
+        <v>3,346 (%1.4)</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="I58" s="16"/>
       <c r="P58" s="4">
         <v>3744</v>
       </c>
       <c r="Q58" s="4">
+        <v>398</v>
+      </c>
+      <c r="R58" s="4">
         <v>3346</v>
       </c>
-      <c r="R58" s="4">
+      <c r="T58" s="4">
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18" t="str">
+      <c r="C59" s="16"/>
+      <c r="D59" s="17" t="str">
         <f t="shared" si="14"/>
         <v>71,464 (%26.9)</v>
       </c>
-      <c r="E59" s="18" t="str">
+      <c r="E59" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>66,387 (%288.2)</v>
-      </c>
-      <c r="F59" s="18" t="str">
+        <v>5,077 (%22.0)</v>
+      </c>
+      <c r="F59" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>5,077 (%2.1)</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
+        <v>66,387 (%27.3)</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="16"/>
       <c r="P59" s="4">
         <v>71464</v>
       </c>
       <c r="Q59" s="4">
+        <v>5077</v>
+      </c>
+      <c r="R59" s="4">
         <v>66387</v>
       </c>
-      <c r="R59" s="4">
+      <c r="T59" s="4">
         <v>5077</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="21" t="s">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18" t="str">
+      <c r="C60" s="16"/>
+      <c r="D60" s="17" t="str">
         <f t="shared" si="14"/>
         <v>93,529 (%35.1)</v>
       </c>
-      <c r="E60" s="18" t="str">
+      <c r="E60" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>85,387 (%370.6)</v>
-      </c>
-      <c r="F60" s="18" t="str">
+        <v>8,142 (%35.3)</v>
+      </c>
+      <c r="F60" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>8,142 (%3.3)</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
+        <v>85,387 (%35.1)</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="16"/>
       <c r="P60" s="4">
         <v>93529</v>
       </c>
       <c r="Q60" s="4">
+        <v>8142</v>
+      </c>
+      <c r="R60" s="4">
         <v>85387</v>
       </c>
-      <c r="R60" s="4">
+      <c r="T60" s="4">
         <v>8142</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18" t="str">
+      <c r="C61" s="16"/>
+      <c r="D61" s="17" t="str">
         <f t="shared" si="14"/>
         <v>80,423 (%30.2)</v>
       </c>
-      <c r="E61" s="18" t="str">
+      <c r="E61" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>72,088 (%312.9)</v>
-      </c>
-      <c r="F61" s="18" t="str">
+        <v>8,335 (%36.2)</v>
+      </c>
+      <c r="F61" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>8,335 (%3.4)</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
+        <v>72,088 (%29.7)</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="16"/>
       <c r="P61" s="4">
         <v>80423</v>
       </c>
       <c r="Q61" s="4">
+        <v>8335</v>
+      </c>
+      <c r="R61" s="4">
         <v>72088</v>
       </c>
-      <c r="R61" s="4">
+      <c r="T61" s="4">
         <v>8335</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="P62" s="4">
         <v>16949</v>
       </c>
       <c r="Q62" s="4">
+        <v>1087</v>
+      </c>
+      <c r="R62" s="4">
         <v>15862</v>
       </c>
-      <c r="R62" s="4">
+      <c r="T62" s="4">
         <v>1087</v>
       </c>
     </row>
@@ -2349,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE30202-87B6-4BC9-ADE6-278E17B6B1E0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/output/table1.xlsx
+++ b/docs/output/table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\cvd-and-teeth\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6140C2AE-D625-47D7-8D10-066ACFAE7AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50364A56-32D9-437E-AB49-8B294DB7D0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
+    <workbookView xWindow="17700" yWindow="-15990" windowWidth="25980" windowHeight="14385" activeTab="1" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Participants</t>
   </si>
@@ -67,9 +67,6 @@
     <t>60-69</t>
   </si>
   <si>
-    <t>70 and above</t>
-  </si>
-  <si>
     <t>Less than HS</t>
   </si>
   <si>
@@ -191,6 +188,12 @@
   </si>
   <si>
     <t>Current Smoker</t>
+  </si>
+  <si>
+    <t>80 or older</t>
+  </si>
+  <si>
+    <t>70-79</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,14 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -404,15 +399,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,14 +407,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,22 +447,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6615E8F-3AD1-4907-A8DC-7D70144537C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2BD0B9-0EA5-4F26-9829-A23CA8344C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -490,13 +485,18 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
+          <a:off x="638175" y="285750"/>
           <a:ext cx="6600825" cy="11906250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -812,7 +812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1547F-4FEB-40FA-9FA4-C2615748DE86}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -837,20 +839,20 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
@@ -860,11 +862,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -877,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -919,8 +921,9 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
@@ -933,8 +936,9 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>26</v>
+      <c r="A7" s="16"/>
+      <c r="B7" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="str">
@@ -951,7 +955,7 @@
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="16"/>
       <c r="N7" s="11"/>
@@ -970,8 +974,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>24</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="17" t="str">
@@ -1005,8 +1010,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>25</v>
+      <c r="A9" s="16"/>
+      <c r="B9" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17" t="str">
@@ -1040,8 +1046,9 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>27</v>
+      <c r="A10" s="16"/>
+      <c r="B10" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="17" t="str">
@@ -1076,8 +1083,8 @@
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="25" t="s">
-        <v>37</v>
+      <c r="B11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1091,14 +1098,14 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="str">
@@ -1114,7 +1121,7 @@
         <v>140,812 (%57.9)</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="6"/>
@@ -1132,7 +1139,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="str">
@@ -1161,8 +1168,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>32</v>
+      <c r="B14" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="3"/>
@@ -1190,8 +1197,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
@@ -1203,7 +1211,8 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="16"/>
@@ -1221,7 +1230,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="16"/>
       <c r="P16" s="4">
@@ -1237,8 +1246,9 @@
         <v>18517</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16"/>
@@ -1270,8 +1280,9 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="16"/>
@@ -1303,9 +1314,10 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>31</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="str">
@@ -1336,8 +1348,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16"/>
@@ -1369,9 +1382,10 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>32</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="str">
@@ -1402,14 +1416,14 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="8" t="str">
@@ -1425,7 +1439,7 @@
         <v>71,844 (%29.6)</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="4">
         <v>75587</v>
@@ -1440,8 +1454,8 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="str">
@@ -1469,9 +1483,9 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>11</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1498,9 +1512,9 @@
         <v>7556</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>32</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1527,9 +1541,10 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
@@ -1540,9 +1555,10 @@
       <c r="I27" s="16"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>12</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="17" t="str">
@@ -1559,7 +1575,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="16"/>
       <c r="P28" s="4">
@@ -1575,9 +1591,10 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>13</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="str">
@@ -1608,9 +1625,10 @@
         <v>7633</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>14</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="str">
@@ -1641,9 +1659,10 @@
         <v>6412</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>15</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="17" t="str">
@@ -1674,9 +1693,10 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>32</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17" t="str">
@@ -1707,15 +1727,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
-        <v>16</v>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="8" t="str">
         <f t="shared" ref="D34:F39" si="7">TEXT(P34, "###,###")&amp;" ("&amp;TEXT(P34/P$4, "%0.0")&amp;")"</f>
@@ -1730,7 +1750,7 @@
         <v>18,498 (%7.6)</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P34" s="4">
         <v>21637</v>
@@ -1745,9 +1765,9 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>17</v>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="8" t="str">
         <f t="shared" si="7"/>
@@ -1774,9 +1794,9 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>18</v>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="8" t="str">
         <f t="shared" si="7"/>
@@ -1803,9 +1823,9 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
-        <v>19</v>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="8" t="str">
         <f t="shared" si="7"/>
@@ -1832,9 +1852,9 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
-        <v>20</v>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="8" t="str">
         <f t="shared" si="7"/>
@@ -1861,9 +1881,9 @@
         <v>5995</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
-        <v>32</v>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D39" s="8" t="str">
         <f t="shared" si="7"/>
@@ -1890,9 +1910,10 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
       <c r="B40" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
@@ -1903,9 +1924,10 @@
       <c r="I40" s="16"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
-        <v>43</v>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="17" t="str">
@@ -1922,7 +1944,7 @@
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" s="16"/>
       <c r="P41" s="4">
@@ -1938,9 +1960,10 @@
         <v>12560</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
-        <v>44</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="17" t="str">
@@ -1971,9 +1994,10 @@
         <v>10137</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
-        <v>32</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="17" t="str">
@@ -2004,15 +2028,15 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
-        <v>43</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="D45" s="8" t="str">
         <f t="shared" ref="D45:F47" si="9">TEXT(P45, "###,###")&amp;" ("&amp;TEXT(P45/P$4, "%0.0")&amp;")"</f>
@@ -2027,7 +2051,7 @@
         <v>200,585 (%82.5)</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P45" s="4">
         <v>215336</v>
@@ -2042,9 +2066,9 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
-        <v>44</v>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="D46" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2071,9 +2095,9 @@
         <v>8245</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
-        <v>32</v>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D47" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2100,9 +2124,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
-        <v>49</v>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
@@ -2113,26 +2138,27 @@
       <c r="I48" s="16"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
-        <v>50</v>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17" t="str">
-        <f t="shared" ref="D48:D52" si="10">TEXT(P49, "###,###")&amp;" ("&amp;TEXT(P49/P$4, "%0.0")&amp;")"</f>
+        <f t="shared" ref="D49:D52" si="10">TEXT(P49, "###,###")&amp;" ("&amp;TEXT(P49/P$4, "%0.0")&amp;")"</f>
         <v>137,300 (%51.6)</v>
       </c>
       <c r="E49" s="17" t="str">
-        <f t="shared" ref="E48:E52" si="11">TEXT(Q49, "###,###")&amp;" ("&amp;TEXT(Q49/Q$4, "%0.0")&amp;")"</f>
+        <f t="shared" ref="E49:E52" si="11">TEXT(Q49, "###,###")&amp;" ("&amp;TEXT(Q49/Q$4, "%0.0")&amp;")"</f>
         <v>8,256 (%35.8)</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" ref="F48:F52" si="12">TEXT(R49, "###,###")&amp;" ("&amp;TEXT(R49/R$4, "%0.0")&amp;")"</f>
+        <f t="shared" ref="F49:F52" si="12">TEXT(R49, "###,###")&amp;" ("&amp;TEXT(R49/R$4, "%0.0")&amp;")"</f>
         <v>129,044 (%53.1)</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I49" s="16"/>
       <c r="P49" s="4">
@@ -2148,9 +2174,10 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>51</v>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17" t="str">
@@ -2181,9 +2208,10 @@
         <v>10035</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
-        <v>52</v>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="17" t="str">
@@ -2214,9 +2242,10 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
-        <v>32</v>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17" t="str">
@@ -2247,15 +2276,15 @@
         <v>708</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
-        <v>43</v>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="D54" s="8" t="str">
         <f t="shared" ref="D54:F56" si="13">TEXT(P54, "###,###")&amp;" ("&amp;TEXT(P54/P$4, "%0.0")&amp;")"</f>
@@ -2270,7 +2299,7 @@
         <v>65,745 (%27.0)</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P54" s="4">
         <v>74872</v>
@@ -2285,9 +2314,9 @@
         <v>9127</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
-        <v>44</v>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="D55" s="8" t="str">
         <f t="shared" si="13"/>
@@ -2314,9 +2343,9 @@
         <v>13855</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>32</v>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D56" s="8" t="str">
         <f t="shared" si="13"/>
@@ -2343,9 +2372,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
@@ -2356,9 +2386,10 @@
       <c r="I57" s="16"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
-        <v>21</v>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="17" t="str">
@@ -2375,7 +2406,7 @@
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I58" s="16"/>
       <c r="P58" s="4">
@@ -2391,9 +2422,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
-        <v>22</v>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="17" t="str">
@@ -2424,9 +2456,10 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
-        <v>23</v>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="17" t="str">
@@ -2457,9 +2490,10 @@
         <v>8142</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
-        <v>32</v>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="17" t="str">
@@ -2490,7 +2524,7 @@
         <v>8335</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P62" s="4">
         <v>16949</v>
       </c>
@@ -2517,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE30202-87B6-4BC9-ADE6-278E17B6B1E0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/output/table1.xlsx
+++ b/docs/output/table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\cvd-and-teeth\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50364A56-32D9-437E-AB49-8B294DB7D0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A8ED2-9D2A-49CA-A7DC-EADACA2BEE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="-15990" windowWidth="25980" windowHeight="14385" activeTab="1" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
+    <workbookView xWindow="2175" yWindow="465" windowWidth="25980" windowHeight="14385" activeTab="1" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Participants</t>
   </si>
@@ -94,27 +94,6 @@
     <t>$50K+</t>
   </si>
   <si>
-    <t>BMI &lt; 25</t>
-  </si>
-  <si>
-    <t>BMI 25 to &lt; 30</t>
-  </si>
-  <si>
-    <t>BMI 30+</t>
-  </si>
-  <si>
-    <t>1 to 5 teeth removed</t>
-  </si>
-  <si>
-    <t>6 or more teeth removed, but not all</t>
-  </si>
-  <si>
-    <t>No teeth removed</t>
-  </si>
-  <si>
-    <t>All teeth removed</t>
-  </si>
-  <si>
     <t>No Cardiovascular Disease</t>
   </si>
   <si>
@@ -130,9 +109,6 @@
     <t>Not reported</t>
   </si>
   <si>
-    <t>p&lt;0.001</t>
-  </si>
-  <si>
     <t>Chi-Squared p-value</t>
   </si>
   <si>
@@ -157,43 +133,70 @@
     <t>Income</t>
   </si>
   <si>
-    <t>Dental Visit in Last Year</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Ever Told You Have Diabetes?</t>
-  </si>
-  <si>
-    <t>Exercise?</t>
-  </si>
-  <si>
-    <t>Reported BMI Category</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>Smoker?</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>Former Smoker</t>
-  </si>
-  <si>
-    <t>Current Smoker</t>
-  </si>
-  <si>
     <t>80 or older</t>
   </si>
   <si>
     <t>70-79</t>
+  </si>
+  <si>
+    <t>No missing teeth</t>
+  </si>
+  <si>
+    <t>1 to 5 extracted teeth</t>
+  </si>
+  <si>
+    <t>6 or more extracted teeth, not all</t>
+  </si>
+  <si>
+    <t>All teeth extracted</t>
+  </si>
+  <si>
+    <t>Dental visit within last year</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Never smoker</t>
+  </si>
+  <si>
+    <t>Former smoker</t>
+  </si>
+  <si>
+    <t>Current smoker</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>BMI Category</t>
+  </si>
+  <si>
+    <t>Underweight</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>Obese</t>
+  </si>
+  <si>
+    <t>p&lt;0.0001</t>
+  </si>
+  <si>
+    <t>Table 1: Characteristics of the 266,109 study participants according to the existence of cardiovascular disease in the behavioral risk factor surveillance system, 2018.</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -362,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,15 +409,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -424,6 +417,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,22 +461,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2BD0B9-0EA5-4F26-9829-A23CA8344C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC127380-10CC-4D5C-866C-63AC6699DEEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -485,8 +499,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="638175" y="285750"/>
-          <a:ext cx="6600825" cy="11906250"/>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="6600825" cy="12230100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,7 +827,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B2" sqref="B2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,21 +852,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:20" s="33" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
@@ -862,11 +887,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -879,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -923,7 +948,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
@@ -937,8 +962,8 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="27" t="s">
-        <v>25</v>
+      <c r="B7" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="str">
@@ -955,7 +980,7 @@
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I7" s="16"/>
       <c r="N7" s="11"/>
@@ -975,8 +1000,8 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="28" t="s">
-        <v>23</v>
+      <c r="B8" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="17" t="str">
@@ -1011,8 +1036,8 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="28" t="s">
-        <v>24</v>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17" t="str">
@@ -1047,8 +1072,8 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="28" t="s">
-        <v>26</v>
+      <c r="B10" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="17" t="str">
@@ -1084,7 +1109,7 @@
     <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1105,7 +1130,7 @@
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="str">
@@ -1121,7 +1146,7 @@
         <v>140,812 (%57.9)</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="6"/>
@@ -1139,7 +1164,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="str">
@@ -1168,8 +1193,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>31</v>
+      <c r="B14" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="3"/>
@@ -1199,7 +1224,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
@@ -1212,7 +1237,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="16"/>
@@ -1230,7 +1255,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I16" s="16"/>
       <c r="P16" s="4">
@@ -1248,7 +1273,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16"/>
@@ -1282,7 +1307,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="16"/>
@@ -1316,8 +1341,8 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="27" t="s">
-        <v>30</v>
+      <c r="B19" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="str">
@@ -1350,7 +1375,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16"/>
@@ -1384,8 +1409,8 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="27" t="s">
-        <v>31</v>
+      <c r="B21" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="str">
@@ -1418,12 +1443,12 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="8" t="str">
@@ -1439,7 +1464,7 @@
         <v>71,844 (%29.6)</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P23" s="4">
         <v>75587</v>
@@ -1455,7 +1480,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="str">
@@ -1484,8 +1509,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>53</v>
+      <c r="B25" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1513,8 +1538,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
-        <v>52</v>
+      <c r="B26" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1544,7 +1569,7 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
@@ -1557,7 +1582,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="16"/>
@@ -1575,7 +1600,7 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I28" s="16"/>
       <c r="P28" s="4">
@@ -1593,7 +1618,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="16"/>
@@ -1627,7 +1652,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="16"/>
@@ -1661,7 +1686,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="16"/>
@@ -1695,8 +1720,8 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="27" t="s">
-        <v>31</v>
+      <c r="B32" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17" t="str">
@@ -1729,12 +1754,12 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="8" t="str">
@@ -1750,7 +1775,7 @@
         <v>18,498 (%7.6)</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P34" s="4">
         <v>21637</v>
@@ -1766,7 +1791,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="8" t="str">
@@ -1795,7 +1820,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="8" t="str">
@@ -1824,7 +1849,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="8" t="str">
@@ -1853,7 +1878,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="8" t="str">
@@ -1882,8 +1907,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>31</v>
+      <c r="B39" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D39" s="8" t="str">
         <f t="shared" si="7"/>
@@ -1926,8 +1951,8 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
-      <c r="B41" s="27" t="s">
-        <v>42</v>
+      <c r="B41" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="17" t="str">
@@ -1944,7 +1969,7 @@
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I41" s="16"/>
       <c r="P41" s="4">
@@ -1962,8 +1987,8 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
-      <c r="B42" s="27" t="s">
-        <v>43</v>
+      <c r="B42" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="17" t="str">
@@ -1996,8 +2021,8 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
-      <c r="B43" s="27" t="s">
-        <v>31</v>
+      <c r="B43" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="17" t="str">
@@ -2030,13 +2055,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>42</v>
+      <c r="B45" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="D45" s="8" t="str">
         <f t="shared" ref="D45:F47" si="9">TEXT(P45, "###,###")&amp;" ("&amp;TEXT(P45/P$4, "%0.0")&amp;")"</f>
@@ -2051,7 +2076,7 @@
         <v>200,585 (%82.5)</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P45" s="4">
         <v>215336</v>
@@ -2067,8 +2092,8 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
-        <v>43</v>
+      <c r="B46" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D46" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2096,8 +2121,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
-        <v>31</v>
+      <c r="B47" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2127,7 +2152,7 @@
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
@@ -2140,8 +2165,8 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
-      <c r="B49" s="27" t="s">
-        <v>49</v>
+      <c r="B49" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17" t="str">
@@ -2158,7 +2183,7 @@
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I49" s="16"/>
       <c r="P49" s="4">
@@ -2176,8 +2201,8 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
-      <c r="B50" s="27" t="s">
-        <v>50</v>
+      <c r="B50" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17" t="str">
@@ -2210,8 +2235,8 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
-      <c r="B51" s="27" t="s">
-        <v>51</v>
+      <c r="B51" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="17" t="str">
@@ -2244,8 +2269,8 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
-      <c r="B52" s="27" t="s">
-        <v>31</v>
+      <c r="B52" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17" t="str">
@@ -2278,13 +2303,13 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
-        <v>42</v>
+      <c r="B54" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="D54" s="8" t="str">
         <f t="shared" ref="D54:F56" si="13">TEXT(P54, "###,###")&amp;" ("&amp;TEXT(P54/P$4, "%0.0")&amp;")"</f>
@@ -2299,7 +2324,7 @@
         <v>65,745 (%27.0)</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P54" s="4">
         <v>74872</v>
@@ -2315,8 +2340,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
-        <v>43</v>
+      <c r="B55" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D55" s="8" t="str">
         <f t="shared" si="13"/>
@@ -2344,8 +2369,8 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
-        <v>31</v>
+      <c r="B56" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D56" s="8" t="str">
         <f t="shared" si="13"/>
@@ -2375,7 +2400,7 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
@@ -2388,8 +2413,8 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
-      <c r="B58" s="27" t="s">
-        <v>20</v>
+      <c r="B58" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="17" t="str">
@@ -2406,7 +2431,7 @@
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I58" s="16"/>
       <c r="P58" s="4">
@@ -2424,8 +2449,8 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
-      <c r="B59" s="27" t="s">
-        <v>21</v>
+      <c r="B59" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="17" t="str">
@@ -2458,8 +2483,8 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
-      <c r="B60" s="27" t="s">
-        <v>22</v>
+      <c r="B60" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="17" t="str">
@@ -2492,8 +2517,8 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
-      <c r="B61" s="27" t="s">
-        <v>31</v>
+      <c r="B61" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="17" t="str">
@@ -2551,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE30202-87B6-4BC9-ADE6-278E17B6B1E0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
